--- a/public/templates/NHWA_Module_7.xlsx
+++ b/public/templates/NHWA_Module_7.xlsx
@@ -5,19 +5,366 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA33297-111B-4DE3-A306-F1F5988EC092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="A50Yby5oilM+1qmLMQkkfr/ragISSf29ArtF+IgGwQFq2AJMGQVVufcKXOC8/kzRIkUAF7GyjP85m5gIPqINRA==" workbookSaltValue="WQmVUQWnZeh8FXj/AguQKQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF630FE-1727-4DD0-AA47-EDF40CBACC20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vRoAhS0rW8VdaCjC0jiNkyzhfUhUN8O0GIavS/WNYJOr4UGcqTfBGSfxANT2utkB68Nc8OFRdzVPgsHM1hjZNw==" workbookSaltValue="OBPkzVWhmznmZsKgV0qbjw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure" sheetId="1" r:id="rId1"/>
     <sheet name="Remuneration" sheetId="2" r:id="rId2"/>
+    <sheet name="Validation" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_a0Tb0vzKk1m">Metadata!$C$129</definedName>
+    <definedName name="_aBpbcEgtzgw">Metadata!$C$35</definedName>
+    <definedName name="_ac1IouPLQqe">Metadata!$C$29</definedName>
+    <definedName name="_ACalScnrl2I">Metadata!$C$210</definedName>
+    <definedName name="_Adzexk8xbzD">Metadata!$C$345</definedName>
+    <definedName name="_AFIorEPU00q">Metadata!$C$131</definedName>
+    <definedName name="_Ai5BPQQvz1k">Metadata!$C$60</definedName>
+    <definedName name="_AJBfDthkySs">Metadata!$C$120</definedName>
+    <definedName name="_AjeCGGb8H76">Metadata!$C$114</definedName>
+    <definedName name="_Ajnw1b8m6eL">Metadata!$C$223</definedName>
+    <definedName name="_ALBRKpJsddQ">Metadata!$C$38</definedName>
+    <definedName name="_aNIrqpwcKXv">Metadata!$C$324</definedName>
+    <definedName name="_apVWLKfARpb">Metadata!$C$186</definedName>
+    <definedName name="_AUStREIxT4s">Metadata!$C$184</definedName>
+    <definedName name="_av3fkpFxEXj">Metadata!$C$336</definedName>
+    <definedName name="_AYWCbVecRKQ">Metadata!$C$331</definedName>
+    <definedName name="_aZ7Bm5L90rn">Metadata!$C$274</definedName>
+    <definedName name="_AZdPnw0b1lm">Metadata!$C$89</definedName>
+    <definedName name="_B4iWc3gcDcn">Metadata!$C$233</definedName>
+    <definedName name="_Bc3mYAhlY1a">Metadata!$C$190</definedName>
+    <definedName name="_BCjjT4Xujzu">Metadata!$C$11</definedName>
+    <definedName name="_bcy4159FETR">Metadata!$C$217</definedName>
+    <definedName name="_BEmreemK803">Metadata!$C$54</definedName>
+    <definedName name="_bGWaeVBrOcc">Metadata!$C$117</definedName>
+    <definedName name="_bhkJDAiqVKX">Metadata!$C$180</definedName>
+    <definedName name="_BlC8wOVHBlb">Metadata!$C$275</definedName>
+    <definedName name="_BLpPqpMtgQY">Metadata!$C$165</definedName>
+    <definedName name="_BmTVMvJHVBO">Metadata!$C$219</definedName>
+    <definedName name="_bnQX2QIuIY9">Metadata!$C$161</definedName>
+    <definedName name="_Bon3xyAAWKf">Metadata!$C$227</definedName>
+    <definedName name="_BOsqct4iCpa">Metadata!$C$9</definedName>
+    <definedName name="_buSEeeViTo3">Metadata!$C$344</definedName>
+    <definedName name="_bvyjEfI0d2V">Metadata!$C$208</definedName>
+    <definedName name="_BVzmce6DVeS">Metadata!$C$174</definedName>
+    <definedName name="_c82mDnhUQly">Metadata!$C$108</definedName>
+    <definedName name="_cCgL3J7Lsgn">Metadata!$C$290</definedName>
+    <definedName name="_CCl7hAqlrmE">Metadata!$C$146</definedName>
+    <definedName name="_cfBaKMnsXd1">Metadata!$C$249</definedName>
+    <definedName name="_cFkpPfqFrJW">Metadata!$C$34</definedName>
+    <definedName name="_cJU4qStc9QT">Metadata!$C$310</definedName>
+    <definedName name="_COs48yLdDvg">Metadata!$C$241</definedName>
+    <definedName name="_cpmmPDsQ3uG">Metadata!$C$105</definedName>
+    <definedName name="_CpV0L0Y9i9h">Metadata!$C$72</definedName>
+    <definedName name="_cRWrIpjzvVl">Metadata!$C$178</definedName>
+    <definedName name="_CvaGFNVhuQl">Metadata!$C$7</definedName>
+    <definedName name="_CVlyw498LdE">Metadata!$C$23</definedName>
+    <definedName name="_cWrL45je7mw">Metadata!$C$90</definedName>
+    <definedName name="_cXn60b9eotz">Metadata!$C$14</definedName>
+    <definedName name="_cZ8823L0fLJ">Metadata!$C$230</definedName>
+    <definedName name="_D4JnxOsqwE4">Metadata!$C$211</definedName>
+    <definedName name="_dFzLXEnIAvJ">Metadata!$C$65</definedName>
+    <definedName name="_DMyxTSpvKOp">Metadata!$C$30</definedName>
+    <definedName name="_dNLjKwsVjod">Metadata!$C$97</definedName>
+    <definedName name="_dpcvWc01CeN">Metadata!$C$110</definedName>
+    <definedName name="_dscgTvwyCw8">Metadata!$C$118</definedName>
+    <definedName name="_DVnpk4xiXGJ">Metadata!$C$298</definedName>
+    <definedName name="_dVpd180cEmo">Metadata!$C$47</definedName>
+    <definedName name="_DzAOqCf0ots">Metadata!$C$102</definedName>
+    <definedName name="_E9G2aQpCs1A">Metadata!$C$171</definedName>
+    <definedName name="_e9IoKRAkYLO">Metadata!$C$93</definedName>
+    <definedName name="_EB4aSZN0eQr">Metadata!$C$226</definedName>
+    <definedName name="_EDHO4qOyY88">Metadata!$C$145</definedName>
+    <definedName name="_EGLpIMSAWhx">Metadata!$C$166</definedName>
+    <definedName name="_ehNfKt5LpG9">Metadata!$C$196</definedName>
+    <definedName name="_ElwEWppmGgv">Metadata!$C$198</definedName>
+    <definedName name="_er7MPiN3tdH">Metadata!$C$299</definedName>
+    <definedName name="_EubjsxqlA4d">Metadata!$C$221</definedName>
+    <definedName name="_eUq1frRqp4E">Metadata!$C$75</definedName>
+    <definedName name="_eVEK7djdWqV">Metadata!$C$316</definedName>
+    <definedName name="_eVp1pvRfPKS">Metadata!$C$337</definedName>
+    <definedName name="_eyvitcZL4ex">Metadata!$C$175</definedName>
+    <definedName name="_f4ZFD2aswys">Metadata!$C$87</definedName>
+    <definedName name="_false">Metadata!$C$347</definedName>
+    <definedName name="_fg8TSIHSGHX">Metadata!$C$168</definedName>
+    <definedName name="_fGOgbIqsxDn">Metadata!$C$41</definedName>
+    <definedName name="_fHaKXfcKthe">Metadata!$C$260</definedName>
+    <definedName name="_fHXW26zg2U6">Metadata!$C$194</definedName>
+    <definedName name="_Fi5lLVwe1Th">Metadata!$C$153</definedName>
+    <definedName name="_fIlPGTXBCUm">Metadata!$C$342</definedName>
+    <definedName name="_FiRcnmXF1Yg">Metadata!$C$57</definedName>
+    <definedName name="_fkrzFaeuYDn">Metadata!$C$335</definedName>
+    <definedName name="_FNduj2N3e8s">Metadata!$C$282</definedName>
+    <definedName name="_FOJUXD6f6lB">Metadata!$C$220</definedName>
+    <definedName name="_Fq9qs6Kn6wN">Metadata!$C$172</definedName>
+    <definedName name="_FUieyovDec8">Metadata!$C$293</definedName>
+    <definedName name="_FVANVRToxVF">Metadata!$C$13</definedName>
+    <definedName name="_fYeClLy8K2x">Metadata!$C$314</definedName>
+    <definedName name="_G037PAPU5dO">Metadata!$C$218</definedName>
+    <definedName name="_G3thRWUQAX9">Metadata!$C$156</definedName>
+    <definedName name="_g49fuSiB623">Metadata!$C$189</definedName>
+    <definedName name="_G8FCnT37gyb">Metadata!$C$252</definedName>
+    <definedName name="_G9o5ad4oJJX">Metadata!$C$183</definedName>
+    <definedName name="_Gan3VYicAWe">Metadata!$C$235</definedName>
+    <definedName name="_gb7vWtO7Wjp">Metadata!$C$343</definedName>
+    <definedName name="_gg9DH7dvdeD">Metadata!$C$177</definedName>
+    <definedName name="_GgfNQGbi829">Metadata!$C$70</definedName>
+    <definedName name="_gMz0MxjZcEt">Metadata!$C$214</definedName>
+    <definedName name="_gNDFctqpNyv">Metadata!$C$5</definedName>
+    <definedName name="_Gnz4lqrVEMf">Metadata!$C$325</definedName>
+    <definedName name="_GPyOOoIby8R">Metadata!$C$273</definedName>
+    <definedName name="_GrU8zQv510v">Metadata!$C$319</definedName>
+    <definedName name="_Gvox4WmLiYC">Metadata!$C$328</definedName>
+    <definedName name="_GWQBgBHdbbp">Metadata!$C$202</definedName>
+    <definedName name="_gxi9jcBYyrL">Metadata!$C$209</definedName>
+    <definedName name="_H6pdAoosHWN">Metadata!$C$15</definedName>
+    <definedName name="_h93FZvJnB12">Metadata!$C$21</definedName>
+    <definedName name="_HDN85xUGB65">Metadata!$C$306</definedName>
+    <definedName name="_HfVjCurKxh2">Metadata!$C$204</definedName>
+    <definedName name="_hG1CNbw8wSF">Metadata!$C$243</definedName>
+    <definedName name="_hgGOTFYZxMO">Metadata!$C$170</definedName>
+    <definedName name="_HizhPCC5Ps5">Metadata!$C$286</definedName>
+    <definedName name="_hL8lKfXNzln">Metadata!$C$50</definedName>
+    <definedName name="_hmZE3mVAZFf">Metadata!$C$115</definedName>
+    <definedName name="_hpXoMVtJpT3">Metadata!$C$280</definedName>
+    <definedName name="_HQPWV8cT7li">Metadata!$C$39</definedName>
+    <definedName name="_hs3mR0ZYVTY">Metadata!$C$69</definedName>
+    <definedName name="_HwqfuL9pQz5">Metadata!$C$317</definedName>
+    <definedName name="_HX7fBSMCCbL">Metadata!$C$341</definedName>
+    <definedName name="_HYEuE8zV74t">Metadata!$C$278</definedName>
+    <definedName name="_I3NxIqG7bD4">Metadata!$C$246</definedName>
+    <definedName name="_i3v8r9XNls2">Metadata!$C$269</definedName>
+    <definedName name="_IbGbsybdeou">Metadata!$C$265</definedName>
+    <definedName name="_ibGsqmiVkoU">Metadata!$C$203</definedName>
+    <definedName name="_IFAb1JUZ0Fz">Metadata!$C$304</definedName>
+    <definedName name="_iFaKKDtb7nf">Metadata!$C$254</definedName>
+    <definedName name="_IjLnDADGraQ">Metadata!$C$301</definedName>
+    <definedName name="_IMqululFzhP">Metadata!$C$37</definedName>
+    <definedName name="_iNT35p3jsEM">Metadata!$C$98</definedName>
+    <definedName name="_ipe4pT2TW7G">Metadata!$C$185</definedName>
+    <definedName name="_iWRW6jXAzvP">Metadata!$C$33</definedName>
+    <definedName name="_IZSm5iPKkDg">Metadata!$C$231</definedName>
+    <definedName name="_IZy3ESdFnp5">Metadata!$C$176</definedName>
+    <definedName name="_jCcVZyWQcWO">Metadata!$C$67</definedName>
+    <definedName name="_jCtFxm8aADJ">Metadata!$C$264</definedName>
+    <definedName name="_JE2f9V3NIFL">Metadata!$C$79</definedName>
+    <definedName name="_JEHwU064LAj">Metadata!$C$212</definedName>
+    <definedName name="_jFOZHDZpjPL">Metadata!$C$86</definedName>
+    <definedName name="_JI5lagoUJR4">Metadata!$C$200</definedName>
+    <definedName name="_JIr15Xt3EQn">Metadata!$C$151</definedName>
+    <definedName name="_jkyBvNzcTLl">Metadata!$C$302</definedName>
+    <definedName name="_jMGr96nGwHN">Metadata!$C$242</definedName>
+    <definedName name="_JQ5qF3mRCMe">Metadata!$C$104</definedName>
+    <definedName name="_juBxu3AprlM">Metadata!$C$339</definedName>
+    <definedName name="_jVqoXv7rFns">Metadata!$C$192</definedName>
+    <definedName name="_JX7HJfPfbog">Metadata!$C$232</definedName>
+    <definedName name="_jXQq22U4Y2e">Metadata!$C$132</definedName>
+    <definedName name="_jZOt27rWre8">Metadata!$C$187</definedName>
+    <definedName name="_JzvGfLYkX17">Metadata!$C$22</definedName>
+    <definedName name="_K5u7PTVJDz9">Metadata!$C$80</definedName>
+    <definedName name="_KAUSOoBq5Ft">Metadata!$C$228</definedName>
+    <definedName name="_KOUhvjWIy6V">Metadata!$C$330</definedName>
+    <definedName name="_kOWad32u5xr">Metadata!$C$6</definedName>
+    <definedName name="_kpFgAwwSjCZ">Metadata!$C$333</definedName>
+    <definedName name="_KqaTbKanCG3">Metadata!$C$247</definedName>
+    <definedName name="_KrU8C1YTdao">Metadata!$C$338</definedName>
+    <definedName name="_KwgjnBBpe5b">Metadata!$C$100</definedName>
+    <definedName name="_l5RPrypr3Wg">Metadata!$C$4</definedName>
+    <definedName name="_LAPR4Iu2NVS">Metadata!$C$150</definedName>
+    <definedName name="_lbMrRSBsXh3">Metadata!$C$137</definedName>
+    <definedName name="_LbWpsX1FJcC">Metadata!$C$92</definedName>
+    <definedName name="_LfoJLP7BbDk">Metadata!$C$44</definedName>
+    <definedName name="_lGN2n7pZ6Ua">Metadata!$C$128</definedName>
+    <definedName name="_LHbCtHlZr3Y">Metadata!$C$43</definedName>
+    <definedName name="_lkkfEeCynHP">Metadata!$C$63</definedName>
+    <definedName name="_lKZR6UK0afN">Metadata!$C$91</definedName>
+    <definedName name="_lnvESj20mWZ">Metadata!$C$229</definedName>
+    <definedName name="_LTLHCOHyyWS">Metadata!$C$271</definedName>
+    <definedName name="_lVPoUAKCdmU">Metadata!$C$295</definedName>
+    <definedName name="_M7R7LVsXlAN">Metadata!$C$10</definedName>
+    <definedName name="_M9HrCkIwaKy">Metadata!$C$320</definedName>
+    <definedName name="_Mb9IYOFZYCv">Metadata!$C$140</definedName>
+    <definedName name="_mDSuyD9lOM5">Metadata!$C$188</definedName>
+    <definedName name="_mhWSEv79IJW">Metadata!$C$297</definedName>
+    <definedName name="_MJEntShoQVK">Metadata!$C$113</definedName>
+    <definedName name="_Mk7P920hkBa">Metadata!$C$152</definedName>
+    <definedName name="_mmJUi0PpvGi">Metadata!$C$216</definedName>
+    <definedName name="_mNa42CHbkO7">Metadata!$C$83</definedName>
+    <definedName name="_MPzyVWiSFF2">Metadata!$C$46</definedName>
+    <definedName name="_MRePCCbesqK">Metadata!$C$18</definedName>
+    <definedName name="_myv7amOYTHn">Metadata!$C$126</definedName>
+    <definedName name="_N3nYJ6ScaYx">Metadata!$C$36</definedName>
+    <definedName name="_n3zYEqEOcIN">Metadata!$C$76</definedName>
+    <definedName name="_n8iofJiiX4T">Metadata!$C$107</definedName>
+    <definedName name="_N9i1v07Ro0E">Metadata!$C$268</definedName>
+    <definedName name="_ncopO2Sj2RB">Metadata!$C$64</definedName>
+    <definedName name="_NEBUXCgtkyY">Metadata!$C$66</definedName>
+    <definedName name="_ngUSWwX0Oby">Metadata!$C$159</definedName>
+    <definedName name="_NhuW760cOQG">Metadata!$C$142</definedName>
+    <definedName name="_Nlv8oKkoAwp">Metadata!$C$205</definedName>
+    <definedName name="_Nrnay4JA8Ga">Metadata!$C$101</definedName>
+    <definedName name="_NUkOvK4bnj2">Metadata!$C$181</definedName>
+    <definedName name="_O0hWoXlHhIS">Metadata!$C$245</definedName>
+    <definedName name="_O7BGyJhV2Tc">Metadata!$C$248</definedName>
+    <definedName name="_OFXJXWnOG0R">Metadata!$C$144</definedName>
+    <definedName name="_oofyLUJJ6Vy">Metadata!$C$81</definedName>
+    <definedName name="_oroMC4mMzMq">Metadata!$C$285</definedName>
+    <definedName name="_oTcSBrUk1hs">Metadata!$C$12</definedName>
+    <definedName name="_oWNF4d3PK8C">Metadata!$C$294</definedName>
+    <definedName name="_oy494aJtjTB">Metadata!$C$251</definedName>
+    <definedName name="_p67J61GpLEt">Metadata!$C$19</definedName>
+    <definedName name="_pbH6bmcioGw">Metadata!$C$136</definedName>
+    <definedName name="_PevCwH17M73">Metadata!$C$262</definedName>
+    <definedName name="_PFAtPR87fHs">Metadata!$C$111</definedName>
+    <definedName name="_pfhvgmllA9M">Metadata!$C$88</definedName>
+    <definedName name="_pGLy2Zj2lVg">Metadata!$C$309</definedName>
+    <definedName name="_phnE76RjYz8">Metadata!$C$26</definedName>
+    <definedName name="_PJS910L8KtX">Metadata!$C$332</definedName>
+    <definedName name="_pL6jJhifUxq">Metadata!$C$68</definedName>
+    <definedName name="_pMukkUmnnkh">Metadata!$C$315</definedName>
+    <definedName name="_PpjdOoVUc7k">Metadata!$C$149</definedName>
+    <definedName name="_PRrdILmQQb3">Metadata!$C$158</definedName>
+    <definedName name="_Pva8axKgU16">Metadata!$C$55</definedName>
+    <definedName name="_PvrMV4NjbtR">Metadata!$C$340</definedName>
+    <definedName name="_PY4aKgi30fr">Metadata!$C$292</definedName>
+    <definedName name="_Pz0LCggcqES">Metadata!$C$238</definedName>
+    <definedName name="_pZZriU4sY0l">Metadata!$C$239</definedName>
+    <definedName name="_q23bFLr2E5D">Metadata!$C$125</definedName>
+    <definedName name="_q2HqXV5OO3z">Metadata!$C$305</definedName>
+    <definedName name="_Q8De2VxoKXS">Metadata!$C$327</definedName>
+    <definedName name="_q9u7nkNkuGy">Metadata!$C$179</definedName>
+    <definedName name="_qbqrFLCJewu">Metadata!$C$288</definedName>
+    <definedName name="_QKhM7ublqzd">Metadata!$C$52</definedName>
+    <definedName name="_QkOClVdLto1">Metadata!$C$259</definedName>
+    <definedName name="_QLERXr2o7IE">Metadata!$C$164</definedName>
+    <definedName name="_qPPju3xBhV9">Metadata!$C$51</definedName>
+    <definedName name="_QqAzWHtJ8VC">Metadata!$C$300</definedName>
+    <definedName name="_QSpLidCdqMU">Metadata!$C$139</definedName>
+    <definedName name="_quQpOfBIDFC">Metadata!$C$182</definedName>
+    <definedName name="_rb6V38jgfFc">Metadata!$C$289</definedName>
+    <definedName name="_RDiXMdNXg16">Metadata!$C$291</definedName>
+    <definedName name="_rEQqufy2KNi">Metadata!$C$240</definedName>
+    <definedName name="_RFbWNJC9bKa">Metadata!$C$17</definedName>
+    <definedName name="_Ri2tb7LBVtP">Metadata!$C$169</definedName>
+    <definedName name="_Rmy6DbwekE1">Metadata!$C$85</definedName>
+    <definedName name="_RTdjvXHJdnH">Metadata!$C$133</definedName>
+    <definedName name="_rtLnlu4GUI2">Metadata!$C$237</definedName>
+    <definedName name="_RyAd6laKg3U">Metadata!$C$276</definedName>
+    <definedName name="_RYw2XIJoAKz">Metadata!$C$24</definedName>
+    <definedName name="_s1mzBU7YOaZ">Metadata!$C$148</definedName>
+    <definedName name="_S52uSY3lb8V">Metadata!$C$329</definedName>
+    <definedName name="_SAsS1Kwc4iW">Metadata!$C$281</definedName>
+    <definedName name="_SF04YR12nKe">Metadata!$C$71</definedName>
+    <definedName name="_sg5v6c9tCZ3">Metadata!$C$109</definedName>
+    <definedName name="_sheLJvWR2SR">Metadata!$C$61</definedName>
+    <definedName name="_shRXArPWh8H">Metadata!$C$134</definedName>
+    <definedName name="_Snhh7MxvJ09">Metadata!$C$78</definedName>
+    <definedName name="_SnYHrnchKjL">Metadata!$C$322</definedName>
+    <definedName name="_SsAjVE1S87E">Metadata!$C$193</definedName>
+    <definedName name="_sSIYRwB1r74">Metadata!$C$160</definedName>
+    <definedName name="_ST86paYjRHP">Metadata!$C$94</definedName>
+    <definedName name="_sv2AClFDPLT">Metadata!$C$62</definedName>
+    <definedName name="_swjTZ93dg4h">Metadata!$C$20</definedName>
+    <definedName name="_T1irZBQ9gNW">Metadata!$C$215</definedName>
+    <definedName name="_T7tKHiW1Db1">Metadata!$C$96</definedName>
+    <definedName name="_taijU5iI2sj">Metadata!$C$25</definedName>
+    <definedName name="_tDFavWinSwr">Metadata!$C$207</definedName>
+    <definedName name="_TIhakAVsQwM">Metadata!$C$222</definedName>
+    <definedName name="_TldYkeCwb5r">Metadata!$C$135</definedName>
+    <definedName name="_tnTRnfd2aVs">Metadata!$C$206</definedName>
+    <definedName name="_tOubXDEXuXK">Metadata!$C$48</definedName>
+    <definedName name="_TpDwlm2Spev">Metadata!$C$326</definedName>
+    <definedName name="_TQ5H1Za7ZMR">Metadata!$C$45</definedName>
+    <definedName name="_Tr4i6jeDDqj">Metadata!$C$99</definedName>
+    <definedName name="_true">Metadata!$C$346</definedName>
+    <definedName name="_tSBEjAHKj9V">Metadata!$C$277</definedName>
+    <definedName name="_tV0rWhHr9cj">Metadata!$C$123</definedName>
+    <definedName name="_TWyMjVaaxmT">Metadata!$C$303</definedName>
+    <definedName name="_txxKPnVUGvV">Metadata!$C$56</definedName>
+    <definedName name="_u3GOCB1Hu01">Metadata!$C$121</definedName>
+    <definedName name="_u7H4MyT2Y0A">Metadata!$C$112</definedName>
+    <definedName name="_UJVEh0g7qOo">Metadata!$C$163</definedName>
+    <definedName name="_UKbfaRlqkpY">Metadata!$C$49</definedName>
+    <definedName name="_UlQiEogy3wG">Metadata!$C$270</definedName>
+    <definedName name="_uvTw0Kus5KZ">Metadata!$C$195</definedName>
+    <definedName name="_v2B5AtYQV8H">Metadata!$C$224</definedName>
+    <definedName name="_VbbSe7wgS9s">Metadata!$C$95</definedName>
+    <definedName name="_vboedbUs1As">Metadata!$C$308</definedName>
+    <definedName name="_Vfcyfxgs9DR">Metadata!$C$28</definedName>
+    <definedName name="_vg4b11FL2Gl">Metadata!$C$318</definedName>
+    <definedName name="_VGIZddtJG2Z">Metadata!$C$74</definedName>
+    <definedName name="_VGOzFKfSazN">Metadata!$C$82</definedName>
+    <definedName name="_VJrTuNXAg9G">Metadata!$C$323</definedName>
+    <definedName name="_vkXlj7ZPkGi">Metadata!$C$258</definedName>
+    <definedName name="_VMqDEughMuP">Metadata!$C$312</definedName>
+    <definedName name="_vnbnnSZXGTv">Metadata!$C$154</definedName>
+    <definedName name="_VnTycSnraEY">Metadata!$C$162</definedName>
+    <definedName name="_VPesUmegQpP">Metadata!$C$119</definedName>
+    <definedName name="_vPoFz9J1v6Y">Metadata!$C$250</definedName>
+    <definedName name="_VtVkbvygJnm">Metadata!$C$42</definedName>
+    <definedName name="_Vvb0gbFH9IO">Metadata!$C$31</definedName>
+    <definedName name="_VWIQFya88eZ">Metadata!$C$40</definedName>
+    <definedName name="_VwqhqUCaMgk">Metadata!$C$272</definedName>
+    <definedName name="_VYVKdqiXo4b">Metadata!$C$84</definedName>
+    <definedName name="_w3IJVQhc8Rm">Metadata!$C$263</definedName>
+    <definedName name="_WApLDd37Yj2">Metadata!$C$191</definedName>
+    <definedName name="_WC5rU5fLMzY">Metadata!$C$173</definedName>
+    <definedName name="_wFkq5oB0dFS">Metadata!$C$321</definedName>
+    <definedName name="_Wgfv9IaDiWM">Metadata!$C$8</definedName>
+    <definedName name="_wimH12ukPK5">Metadata!$C$287</definedName>
+    <definedName name="_wj7iV08dvFq">Metadata!$C$284</definedName>
+    <definedName name="_wMTP4GblKr8">Metadata!$C$261</definedName>
+    <definedName name="_WMYCxrhtTKN">Metadata!$C$59</definedName>
+    <definedName name="_wnuoeS9sVZR">Metadata!$C$244</definedName>
+    <definedName name="_Wpzccx0vjIP">Metadata!$C$257</definedName>
+    <definedName name="_WtcZBCTspgM">Metadata!$C$311</definedName>
+    <definedName name="_wUBWZEHJm6Q">Metadata!$C$255</definedName>
+    <definedName name="_WuQvgvXKamv">Metadata!$C$234</definedName>
+    <definedName name="_WXGcnQWJ0Qd">Metadata!$C$143</definedName>
+    <definedName name="_wyKC2eWRH3y">Metadata!$C$106</definedName>
+    <definedName name="_X2FXsNBTisV">Metadata!$C$16</definedName>
+    <definedName name="_x6DVvicRjYC">Metadata!$C$199</definedName>
+    <definedName name="_xb2ezJcUoSR">Metadata!$C$307</definedName>
+    <definedName name="_xB6nQN5Wtpg">Metadata!$C$283</definedName>
+    <definedName name="_XebDUbuPqVx">Metadata!$C$197</definedName>
+    <definedName name="_XeWqwCw9G5s">Metadata!$C$155</definedName>
+    <definedName name="_XiMIOSJ0d3c">Metadata!$C$73</definedName>
+    <definedName name="_XjHXb0aFH5w">Metadata!$C$130</definedName>
+    <definedName name="_XJscL6IuHpd">Metadata!$C$201</definedName>
+    <definedName name="_XKKI1hhyFxk">Metadata!$C$141</definedName>
+    <definedName name="_xqjIL1cGrl1">Metadata!$C$334</definedName>
+    <definedName name="_Xr12mI7VPn3">Metadata!$C$53</definedName>
+    <definedName name="_xWfKWoc4ggg">Metadata!$C$3</definedName>
+    <definedName name="_XYpsN5j30R9">Metadata!$C$225</definedName>
+    <definedName name="_Xz7rnovuiOx">Metadata!$C$116</definedName>
+    <definedName name="_y582ESg0Vjo">Metadata!$C$127</definedName>
+    <definedName name="_Y7fcspgsU43">Metadata!$C$58</definedName>
+    <definedName name="_yBqy4nxuOCA">Metadata!$C$266</definedName>
+    <definedName name="_Yg9QkNQk9p7">Metadata!$C$147</definedName>
+    <definedName name="_YOL13ptz4ef">Metadata!$C$236</definedName>
+    <definedName name="_yp7OM2HDp2q">Metadata!$C$77</definedName>
+    <definedName name="_yzAMOdV0Pmr">Metadata!$C$253</definedName>
+    <definedName name="_z51rgcc5R8V">Metadata!$C$167</definedName>
+    <definedName name="_z5ouOuycTPO">Metadata!$C$296</definedName>
+    <definedName name="_zaluKz5Llai">Metadata!$C$213</definedName>
+    <definedName name="_zAlUZlOOdft">Metadata!$C$27</definedName>
+    <definedName name="_Zav7juzGmEo">Metadata!$C$256</definedName>
+    <definedName name="_ZcrjvJaYQb7">Metadata!$C$122</definedName>
+    <definedName name="_Zdl3ad7PayF">Metadata!$C$138</definedName>
+    <definedName name="_zEYrsiNUGIo">Metadata!$C$157</definedName>
+    <definedName name="_zFInPJBZVbN">Metadata!$C$124</definedName>
+    <definedName name="_ZgsdoEiTlLq">Metadata!$C$279</definedName>
+    <definedName name="_ZRsZdd2AvAR">Metadata!$C$32</definedName>
+    <definedName name="_ZRxKEGQmkWI">Metadata!$C$267</definedName>
+    <definedName name="_zYQqFxQw5jj">Metadata!$C$313</definedName>
+    <definedName name="_ZzoDfdWIt6z">Metadata!$C$103</definedName>
     <definedName name="dropdownlist">Expenditure!$AE$2:INDEX(Expenditure!$AE$2:$AE$249,MAX(Expenditure!$AD$2:$AD$249),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1017">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2280,9 +2627,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Value (USD)</t>
   </si>
   <si>
@@ -2364,12 +2708,6 @@
     <t>Health Workforce Spending and Remuneration - Report data in USD (annual)</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>dNLjKwsVjod</t>
   </si>
   <si>
@@ -2575,6 +2913,516 @@
   </si>
   <si>
     <t>NHWA_MODULE_7_v1</t>
+  </si>
+  <si>
+    <t>True only</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>Organisation Units</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>organisationUnit</t>
+  </si>
+  <si>
+    <t>categoryOptions</t>
+  </si>
+  <si>
+    <t>K5u7PTVJDz9</t>
+  </si>
+  <si>
+    <t>JE2f9V3NIFL</t>
+  </si>
+  <si>
+    <t>Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Snhh7MxvJ09</t>
+  </si>
+  <si>
+    <t>General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>yp7OM2HDp2q</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>n3zYEqEOcIN</t>
+  </si>
+  <si>
+    <t>Official Development Assistance</t>
+  </si>
+  <si>
+    <t>eUq1frRqp4E</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>VGIZddtJG2Z</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>XiMIOSJ0d3c</t>
+  </si>
+  <si>
+    <t>Midwifery Professional</t>
+  </si>
+  <si>
+    <t>CpV0L0Y9i9h</t>
+  </si>
+  <si>
+    <t>Voluntary</t>
+  </si>
+  <si>
+    <t>SF04YR12nKe</t>
+  </si>
+  <si>
+    <t>Social contribution</t>
+  </si>
+  <si>
+    <t>GgfNQGbi829</t>
+  </si>
+  <si>
+    <t>Private for profit</t>
+  </si>
+  <si>
+    <t>hs3mR0ZYVTY</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>pL6jJhifUxq</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>jCcVZyWQcWO</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>NEBUXCgtkyY</t>
+  </si>
+  <si>
+    <t>Private not for profit</t>
+  </si>
+  <si>
+    <t>dFzLXEnIAvJ</t>
+  </si>
+  <si>
+    <t>Nursing Professional</t>
+  </si>
+  <si>
+    <t>ncopO2Sj2RB</t>
+  </si>
+  <si>
+    <t>Out of Pocket</t>
+  </si>
+  <si>
+    <t>lkkfEeCynHP</t>
+  </si>
+  <si>
+    <t>Wages and Salary</t>
+  </si>
+  <si>
+    <t>sv2AClFDPLT</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>sheLJvWR2SR</t>
+  </si>
+  <si>
+    <t>Public expenditure</t>
+  </si>
+  <si>
+    <t>Ai5BPQQvz1k</t>
+  </si>
+  <si>
+    <t>Other compensation</t>
+  </si>
+  <si>
+    <t>WMYCxrhtTKN</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Y7fcspgsU43</t>
+  </si>
+  <si>
+    <t>old_NHWA_Out of Pocket</t>
+  </si>
+  <si>
+    <t>categoryOptionCombos</t>
+  </si>
+  <si>
+    <t>FiRcnmXF1Yg</t>
+  </si>
+  <si>
+    <t>old_NHWA_Others</t>
+  </si>
+  <si>
+    <t>txxKPnVUGvV</t>
+  </si>
+  <si>
+    <t>NHWA_Government</t>
+  </si>
+  <si>
+    <t>Pva8axKgU16</t>
+  </si>
+  <si>
+    <t>NHWA_Household</t>
+  </si>
+  <si>
+    <t>BEmreemK803</t>
+  </si>
+  <si>
+    <t>Xr12mI7VPn3</t>
+  </si>
+  <si>
+    <t>old_NHWA_Official Development Assistance</t>
+  </si>
+  <si>
+    <t>QKhM7ublqzd</t>
+  </si>
+  <si>
+    <t>NHWA_Other compensation</t>
+  </si>
+  <si>
+    <t>qPPju3xBhV9</t>
+  </si>
+  <si>
+    <t>hL8lKfXNzln</t>
+  </si>
+  <si>
+    <t>NHWA_Private for profit</t>
+  </si>
+  <si>
+    <t>UKbfaRlqkpY</t>
+  </si>
+  <si>
+    <t>NHWA_Voluntary</t>
+  </si>
+  <si>
+    <t>tOubXDEXuXK</t>
+  </si>
+  <si>
+    <t>NHWA_Others</t>
+  </si>
+  <si>
+    <t>dVpd180cEmo</t>
+  </si>
+  <si>
+    <t>old_NHWA_Midwifery Professional</t>
+  </si>
+  <si>
+    <t>MPzyVWiSFF2</t>
+  </si>
+  <si>
+    <t>NHWA_Training</t>
+  </si>
+  <si>
+    <t>TQ5H1Za7ZMR</t>
+  </si>
+  <si>
+    <t>NHWA_Wages and Salary</t>
+  </si>
+  <si>
+    <t>LfoJLP7BbDk</t>
+  </si>
+  <si>
+    <t>old_NHWA_General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>LHbCtHlZr3Y</t>
+  </si>
+  <si>
+    <t>old_NHWA_Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>VtVkbvygJnm</t>
+  </si>
+  <si>
+    <t>old_NHWA_Nursing Professional</t>
+  </si>
+  <si>
+    <t>fGOgbIqsxDn</t>
+  </si>
+  <si>
+    <t>VWIQFya88eZ</t>
+  </si>
+  <si>
+    <t>old_NHWA_Public expenditure</t>
+  </si>
+  <si>
+    <t>HQPWV8cT7li</t>
+  </si>
+  <si>
+    <t>old_NHWA_Dentist</t>
+  </si>
+  <si>
+    <t>ALBRKpJsddQ</t>
+  </si>
+  <si>
+    <t>NHWA_Public</t>
+  </si>
+  <si>
+    <t>IMqululFzhP</t>
+  </si>
+  <si>
+    <t>NHWA_Private not for profit</t>
+  </si>
+  <si>
+    <t>N3nYJ6ScaYx</t>
+  </si>
+  <si>
+    <t>old_NHWA_Medical Doctors</t>
+  </si>
+  <si>
+    <t>aBpbcEgtzgw</t>
+  </si>
+  <si>
+    <t>NHWA_Compensation</t>
+  </si>
+  <si>
+    <t>cFkpPfqFrJW</t>
+  </si>
+  <si>
+    <t>old_NHWA_Pharmacist</t>
+  </si>
+  <si>
+    <t>iWRW6jXAzvP</t>
+  </si>
+  <si>
+    <t>NHWA Module 7</t>
+  </si>
+  <si>
+    <t>dataSets</t>
+  </si>
+  <si>
+    <t>ZRsZdd2AvAR</t>
+  </si>
+  <si>
+    <t>HWF Module 7</t>
+  </si>
+  <si>
+    <t>dataEntryForms</t>
+  </si>
+  <si>
+    <t>Vvb0gbFH9IO</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>DMyxTSpvKOp</t>
+  </si>
+  <si>
+    <t>NHWA_HF Ownership</t>
+  </si>
+  <si>
+    <t>ac1IouPLQqe</t>
+  </si>
+  <si>
+    <t>NHWA_Ownership</t>
+  </si>
+  <si>
+    <t>Vfcyfxgs9DR</t>
+  </si>
+  <si>
+    <t>NHWA_Compensation Ownership</t>
+  </si>
+  <si>
+    <t>zAlUZlOOdft</t>
+  </si>
+  <si>
+    <t>NHWA_Key Occupations</t>
+  </si>
+  <si>
+    <t>phnE76RjYz8</t>
+  </si>
+  <si>
+    <t>NHWA_Expenditure on HWF</t>
+  </si>
+  <si>
+    <t>taijU5iI2sj</t>
+  </si>
+  <si>
+    <t>RYw2XIJoAKz</t>
+  </si>
+  <si>
+    <t>categoryCombos</t>
+  </si>
+  <si>
+    <t>CVlyw498LdE</t>
+  </si>
+  <si>
+    <t>JzvGfLYkX17</t>
+  </si>
+  <si>
+    <t>h93FZvJnB12</t>
+  </si>
+  <si>
+    <t>swjTZ93dg4h</t>
+  </si>
+  <si>
+    <t>p67J61GpLEt</t>
+  </si>
+  <si>
+    <t>MRePCCbesqK</t>
+  </si>
+  <si>
+    <t>RFbWNJC9bKa</t>
+  </si>
+  <si>
+    <t>FILE_RESOURCE</t>
+  </si>
+  <si>
+    <t>HWF Module 7 File upload</t>
+  </si>
+  <si>
+    <t>dataElements</t>
+  </si>
+  <si>
+    <t>X2FXsNBTisV</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>Average Entry-level wages and salaries in private</t>
+  </si>
+  <si>
+    <t>H6pdAoosHWN</t>
+  </si>
+  <si>
+    <t>LONG_TEXT</t>
+  </si>
+  <si>
+    <t>Comment policies standards wage ceiling</t>
+  </si>
+  <si>
+    <t>cXn60b9eotz</t>
+  </si>
+  <si>
+    <t>Average Entry-level wages and salaries in public</t>
+  </si>
+  <si>
+    <t>FVANVRToxVF</t>
+  </si>
+  <si>
+    <t>median earnings of men HWF</t>
+  </si>
+  <si>
+    <t>oTcSBrUk1hs</t>
+  </si>
+  <si>
+    <t>total median earnings HWF</t>
+  </si>
+  <si>
+    <t>BCjjT4Xujzu</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Existence of a national policy on wage ceiling</t>
+  </si>
+  <si>
+    <t>M7R7LVsXlAN</t>
+  </si>
+  <si>
+    <t>Entry-level wages private not 4 profit</t>
+  </si>
+  <si>
+    <t>BOsqct4iCpa</t>
+  </si>
+  <si>
+    <t>Financial income receivef from ODA</t>
+  </si>
+  <si>
+    <t>Wgfv9IaDiWM</t>
+  </si>
+  <si>
+    <t>INTEGER_ZERO_OR_POSITIVE</t>
+  </si>
+  <si>
+    <t>Expenditure on compensation of employees</t>
+  </si>
+  <si>
+    <t>CvaGFNVhuQl</t>
+  </si>
+  <si>
+    <t>median earnings of female HWF</t>
+  </si>
+  <si>
+    <t>kOWad32u5xr</t>
+  </si>
+  <si>
+    <t>expenditure on health workforce</t>
+  </si>
+  <si>
+    <t>gNDFctqpNyv</t>
+  </si>
+  <si>
+    <t>Public expenditure on compensation of employees</t>
+  </si>
+  <si>
+    <t>l5RPrypr3Wg</t>
+  </si>
+  <si>
+    <t>public expenditure on health workforce</t>
+  </si>
+  <si>
+    <t>xWfKWoc4ggg</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Option Set</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +3433,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2654,8 +3502,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2678,6 +3532,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2791,7 +3650,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2813,8 +3672,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2858,7 +3718,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2924,6 +3783,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2933,18 +3806,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2976,13 +3840,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3001,6 +3870,7 @@
     <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 9" xfId="19" xr:uid="{FC546822-A9D0-4F59-A900-BF8A9F0DA4BA}"/>
     <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3014,140 +3884,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$19" fmlaRange="$N$3:$N$5" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="ComboBox1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Drop Down 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3470,12 +4206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BZ266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,19 +4236,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>849</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3524,9 +4260,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="8" t="s">
-        <v>751</v>
-      </c>
+      <c r="V1" s="8"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="3" t="s">
@@ -3543,16 +4277,16 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3564,10 +4298,7 @@
       <c r="R2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="9" t="e">
-        <f>VLOOKUP(V1,Y2:AB250,2,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="V2" s="9"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="3" t="s">
@@ -3596,29 +4327,29 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
       <c r="Y3" s="3" t="s">
         <v>106</v>
       </c>
@@ -3645,20 +4376,21 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30" t="str">
-        <f>IFERROR(VLOOKUP(V1,Y2:AB249,4,0),"")</f>
+      <c r="C4" s="61"/>
+      <c r="E4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="str">
+        <f>IFERROR(VLOOKUP(C4,Y2:AB249,4,0),"")</f>
         <v/>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="Y4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3685,14 +4417,14 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3728,18 +4460,18 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="N6" s="11"/>
@@ -3747,8 +4479,8 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
       <c r="Y6" s="3" t="s">
         <v>107</v>
       </c>
@@ -3775,22 +4507,22 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>760</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>761</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>762</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -3825,13 +4557,13 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>763</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="C8" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="N8" s="13"/>
@@ -3841,16 +4573,16 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="Z8" s="40" t="s">
+      <c r="Z8" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="AA8" s="40" t="s">
+      <c r="AA8" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="AB8" s="40" t="s">
+      <c r="AB8" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC8" s="3">
@@ -3867,9 +4599,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3882,16 +4614,16 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" s="40" t="s">
+      <c r="Z9" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="AA9" s="40" t="s">
+      <c r="AA9" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="AB9" s="40" t="s">
+      <c r="AB9" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC9" s="3">
@@ -3908,17 +4640,17 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
-        <v>758</v>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42" t="s">
+        <v>757</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -3929,16 +4661,16 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="40" t="s">
+      <c r="Z10" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="AA10" s="40" t="s">
+      <c r="AA10" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AB10" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC10" s="3">
@@ -3955,12 +4687,12 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="N11" s="13"/>
@@ -3970,16 +4702,16 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="Z11" s="40" t="s">
+      <c r="Z11" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="AA11" s="40" t="s">
+      <c r="AA11" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="AB11" s="40" t="s">
+      <c r="AB11" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC11" s="3">
@@ -3999,13 +4731,13 @@
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>759</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="34"/>
+      <c r="C12" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="N12" s="13"/>
@@ -4015,16 +4747,16 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="Z12" s="40" t="s">
+      <c r="Z12" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="AA12" s="40" t="s">
+      <c r="AA12" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="AB12" s="40" t="s">
+      <c r="AB12" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC12" s="3">
@@ -4056,16 +4788,16 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-      <c r="Y13" s="40" t="s">
+      <c r="Y13" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="Z13" s="40" t="s">
+      <c r="Z13" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="AA13" s="40" t="s">
+      <c r="AA13" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AB13" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC13" s="3">
@@ -4082,23 +4814,23 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>765</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>754</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>753</v>
+      <c r="G14" s="46" t="s">
+        <v>752</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -4109,16 +4841,16 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="Y14" s="40" t="s">
+      <c r="Y14" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="Z14" s="40" t="s">
+      <c r="Z14" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="AA14" s="40" t="s">
+      <c r="AA14" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="AB14" s="40" t="s">
+      <c r="AB14" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC14" s="3">
@@ -4135,12 +4867,12 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="N15" s="13"/>
@@ -4150,16 +4882,16 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="Y15" s="40" t="s">
+      <c r="Y15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="40" t="s">
+      <c r="Z15" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="40" t="s">
+      <c r="AA15" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="AB15" s="40" t="s">
+      <c r="AB15" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC15" s="3">
@@ -4180,12 +4912,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>773</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+        <v>772</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="N16" s="13"/>
@@ -4195,16 +4927,16 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="Y16" s="40" t="s">
+      <c r="Y16" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="Z16" s="40" t="s">
+      <c r="Z16" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="AA16" s="40" t="s">
+      <c r="AA16" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="AB16" s="40" t="s">
+      <c r="AB16" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC16" s="3">
@@ -4229,16 +4961,16 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="Y17" s="40" t="s">
+      <c r="Y17" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Z17" s="40" t="s">
+      <c r="Z17" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AA17" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="AB17" s="40" t="s">
+      <c r="AB17" s="39" t="s">
         <v>368</v>
       </c>
       <c r="AC17" s="3">
@@ -4255,34 +4987,34 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46" t="s">
-        <v>756</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>764</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>753</v>
+      <c r="D18" s="42"/>
+      <c r="E18" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>752</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="Y18" s="40" t="s">
+      <c r="Y18" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA18" s="40" t="s">
+      <c r="Z18" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA18" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="AB18" s="40" t="s">
+      <c r="AB18" s="39" t="s">
         <v>670</v>
       </c>
       <c r="AC18" s="3">
@@ -4299,22 +5031,22 @@
       </c>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="Y19" s="40" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="Y19" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" s="40" t="s">
+      <c r="Z19" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="AA19" s="40" t="s">
+      <c r="AA19" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AB19" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC19" s="3">
@@ -4334,23 +5066,23 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>774</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="Y20" s="40" t="s">
+      <c r="C20" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="Y20" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="Z20" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AA20" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AB20" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC20" s="3">
@@ -4367,22 +5099,22 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="Y21" s="40" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="Y21" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="Z21" s="40" t="s">
+      <c r="Z21" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="AA21" s="40" t="s">
+      <c r="AA21" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="AB21" s="40" t="s">
+      <c r="AB21" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC21" s="3">
@@ -4399,16 +5131,16 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y22" s="40" t="s">
+      <c r="Y22" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="Z22" s="40" t="s">
+      <c r="Z22" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="AA22" s="40" t="s">
+      <c r="AA22" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="AB22" s="40" t="s">
+      <c r="AB22" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC22" s="3">
@@ -4425,16 +5157,16 @@
       </c>
     </row>
     <row r="23" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y23" s="40" t="s">
+      <c r="Y23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="40" t="s">
+      <c r="Z23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AB23" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC23" s="3">
@@ -4451,16 +5183,16 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y24" s="40" t="s">
+      <c r="Y24" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="Z24" s="40" t="s">
+      <c r="Z24" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="AA24" s="40" t="s">
+      <c r="AA24" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="AB24" s="40" t="s">
+      <c r="AB24" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC24" s="3">
@@ -4477,16 +5209,16 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y25" s="40" t="s">
+      <c r="Y25" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="Z25" s="40" t="s">
+      <c r="Z25" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="AA25" s="40" t="s">
+      <c r="AA25" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="AB25" s="40" t="s">
+      <c r="AB25" s="39" t="s">
         <v>670</v>
       </c>
       <c r="AC25" s="3">
@@ -4503,16 +5235,16 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y26" s="40" t="s">
+      <c r="Y26" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Z26" s="40" t="s">
+      <c r="Z26" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="AA26" s="40" t="s">
+      <c r="AA26" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="AB26" s="40" t="s">
+      <c r="AB26" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC26" s="3">
@@ -4529,16 +5261,16 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y27" s="40" t="s">
+      <c r="Y27" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="Z27" s="40" t="s">
+      <c r="Z27" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="AA27" s="40" t="s">
+      <c r="AA27" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="AB27" s="40" t="s">
+      <c r="AB27" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC27" s="3">
@@ -4555,16 +5287,16 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y28" s="40" t="s">
+      <c r="Y28" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="Z28" s="40" t="s">
+      <c r="Z28" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="AA28" s="40" t="s">
+      <c r="AA28" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="AB28" s="40" t="s">
+      <c r="AB28" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC28" s="3">
@@ -4581,16 +5313,16 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y29" s="40" t="s">
+      <c r="Y29" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="40" t="s">
+      <c r="Z29" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="AA29" s="40" t="s">
+      <c r="AA29" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="AB29" s="40" t="s">
+      <c r="AB29" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC29" s="3">
@@ -4607,16 +5339,16 @@
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y30" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="Z30" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="AA30" s="40" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB30" s="40" t="s">
+      <c r="Y30" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z30" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA30" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB30" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC30" s="3">
@@ -4633,16 +5365,16 @@
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y31" s="40" t="s">
+      <c r="Y31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="Z31" s="40" t="s">
+      <c r="Z31" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="AA31" s="40" t="s">
+      <c r="AA31" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="AB31" s="40" t="s">
+      <c r="AB31" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC31" s="3">
@@ -4659,16 +5391,16 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y32" s="40" t="s">
-        <v>785</v>
-      </c>
-      <c r="Z32" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="AA32" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB32" s="40" t="s">
+      <c r="Y32" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA32" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB32" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC32" s="3">
@@ -4685,16 +5417,16 @@
       </c>
     </row>
     <row r="33" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y33" s="40" t="s">
+      <c r="Y33" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="Z33" s="40" t="s">
+      <c r="Z33" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="AA33" s="40" t="s">
+      <c r="AA33" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="AB33" s="40" t="s">
+      <c r="AB33" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC33" s="3">
@@ -4711,16 +5443,16 @@
       </c>
     </row>
     <row r="34" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y34" s="40" t="s">
+      <c r="Y34" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="Z34" s="40" t="s">
+      <c r="Z34" s="39" t="s">
         <v>694</v>
       </c>
-      <c r="AA34" s="40" t="s">
+      <c r="AA34" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="AB34" s="40" t="s">
+      <c r="AB34" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC34" s="3">
@@ -4737,16 +5469,16 @@
       </c>
     </row>
     <row r="35" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y35" s="40" t="s">
+      <c r="Y35" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="Z35" s="40" t="s">
+      <c r="Z35" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="AA35" s="40" t="s">
+      <c r="AA35" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="AB35" s="40" t="s">
+      <c r="AB35" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC35" s="3">
@@ -4763,16 +5495,16 @@
       </c>
     </row>
     <row r="36" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y36" s="40" t="s">
+      <c r="Y36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Z36" s="40" t="s">
+      <c r="Z36" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="AA36" s="40" t="s">
+      <c r="AA36" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="AB36" s="40" t="s">
+      <c r="AB36" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC36" s="3">
@@ -4789,16 +5521,16 @@
       </c>
     </row>
     <row r="37" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y37" s="40" t="s">
+      <c r="Y37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Z37" s="40" t="s">
+      <c r="Z37" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="AA37" s="40" t="s">
+      <c r="AA37" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="AB37" s="40" t="s">
+      <c r="AB37" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC37" s="3">
@@ -4815,16 +5547,16 @@
       </c>
     </row>
     <row r="38" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y38" s="40" t="s">
+      <c r="Y38" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="Z38" s="40" t="s">
+      <c r="Z38" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="AA38" s="40" t="s">
+      <c r="AA38" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AB38" s="40" t="s">
+      <c r="AB38" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC38" s="3">
@@ -4841,16 +5573,16 @@
       </c>
     </row>
     <row r="39" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y39" s="40" t="s">
+      <c r="Y39" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="Z39" s="40" t="s">
+      <c r="Z39" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="AA39" s="40" t="s">
+      <c r="AA39" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="AB39" s="40" t="s">
+      <c r="AB39" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC39" s="3">
@@ -4867,16 +5599,16 @@
       </c>
     </row>
     <row r="40" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y40" s="40" t="s">
+      <c r="Y40" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Z40" s="40" t="s">
+      <c r="Z40" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="AA40" s="40" t="s">
+      <c r="AA40" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="AB40" s="40" t="s">
+      <c r="AB40" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC40" s="3">
@@ -4893,16 +5625,16 @@
       </c>
     </row>
     <row r="41" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y41" s="40" t="s">
+      <c r="Y41" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="40" t="s">
+      <c r="Z41" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="AA41" s="40" t="s">
+      <c r="AA41" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="AB41" s="40" t="s">
+      <c r="AB41" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC41" s="3">
@@ -4919,16 +5651,16 @@
       </c>
     </row>
     <row r="42" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y42" s="40" t="s">
+      <c r="Y42" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="Z42" s="40" t="s">
+      <c r="Z42" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="AA42" s="40" t="s">
+      <c r="AA42" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="AB42" s="40" t="s">
+      <c r="AB42" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC42" s="3">
@@ -4945,16 +5677,16 @@
       </c>
     </row>
     <row r="43" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y43" s="40" t="s">
+      <c r="Y43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Z43" s="40" t="s">
+      <c r="Z43" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AA43" s="40" t="s">
+      <c r="AA43" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="AB43" s="40" t="s">
+      <c r="AB43" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC43" s="3">
@@ -4971,16 +5703,16 @@
       </c>
     </row>
     <row r="44" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y44" s="40" t="s">
+      <c r="Y44" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Z44" s="40" t="s">
+      <c r="Z44" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="AA44" s="40" t="s">
+      <c r="AA44" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="AB44" s="40" t="s">
+      <c r="AB44" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC44" s="3">
@@ -4997,16 +5729,16 @@
       </c>
     </row>
     <row r="45" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y45" s="40" t="s">
+      <c r="Y45" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Z45" s="40" t="s">
+      <c r="Z45" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="AA45" s="40" t="s">
+      <c r="AA45" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="AB45" s="40" t="s">
+      <c r="AB45" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC45" s="3">
@@ -5023,16 +5755,16 @@
       </c>
     </row>
     <row r="46" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y46" s="40" t="s">
+      <c r="Y46" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="Z46" s="40" t="s">
+      <c r="Z46" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="AA46" s="40" t="s">
+      <c r="AA46" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="AB46" s="40" t="s">
+      <c r="AB46" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC46" s="3">
@@ -5049,16 +5781,16 @@
       </c>
     </row>
     <row r="47" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y47" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="Z47" s="40" t="s">
+      <c r="Y47" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z47" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="AA47" s="40" t="s">
+      <c r="AA47" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="AB47" s="40" t="s">
+      <c r="AB47" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC47" s="3">
@@ -5075,16 +5807,16 @@
       </c>
     </row>
     <row r="48" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y48" s="40" t="s">
-        <v>789</v>
-      </c>
-      <c r="Z48" s="40" t="s">
+      <c r="Y48" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="Z48" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="AA48" s="40" t="s">
+      <c r="AA48" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="AB48" s="40" t="s">
+      <c r="AB48" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC48" s="3">
@@ -5101,16 +5833,16 @@
       </c>
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y49" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="Z49" s="40" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA49" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB49" s="40" t="s">
+      <c r="Y49" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z49" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="AA49" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB49" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC49" s="3">
@@ -5127,16 +5859,16 @@
       </c>
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y50" s="40" t="s">
+      <c r="Y50" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="Z50" s="40" t="s">
+      <c r="Z50" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="AA50" s="40" t="s">
+      <c r="AA50" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="AB50" s="40" t="s">
+      <c r="AB50" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC50" s="3">
@@ -5153,16 +5885,16 @@
       </c>
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y51" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="Z51" s="40" t="s">
-        <v>794</v>
-      </c>
-      <c r="AA51" s="40" t="s">
-        <v>795</v>
-      </c>
-      <c r="AB51" s="40" t="s">
+      <c r="Y51" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z51" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="AA51" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="AB51" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC51" s="3">
@@ -5179,16 +5911,16 @@
       </c>
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y52" s="40" t="s">
-        <v>796</v>
-      </c>
-      <c r="Z52" s="40" t="s">
-        <v>797</v>
-      </c>
-      <c r="AA52" s="40" t="s">
-        <v>798</v>
-      </c>
-      <c r="AB52" s="40" t="s">
+      <c r="Y52" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z52" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="AA52" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="AB52" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC52" s="3">
@@ -5205,16 +5937,16 @@
       </c>
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y53" s="40" t="s">
+      <c r="Y53" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="Z53" s="40" t="s">
+      <c r="Z53" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="AA53" s="40" t="s">
+      <c r="AA53" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="AB53" s="40" t="s">
+      <c r="AB53" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC53" s="3">
@@ -5231,16 +5963,16 @@
       </c>
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y54" s="40" t="s">
+      <c r="Y54" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="Z54" s="40" t="s">
+      <c r="Z54" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="AA54" s="40" t="s">
+      <c r="AA54" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="AB54" s="40" t="s">
+      <c r="AB54" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC54" s="3">
@@ -5257,16 +5989,16 @@
       </c>
     </row>
     <row r="55" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y55" s="40" t="s">
+      <c r="Y55" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="Z55" s="40" t="s">
+      <c r="Z55" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="AA55" s="40" t="s">
+      <c r="AA55" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="AB55" s="40" t="s">
+      <c r="AB55" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC55" s="3">
@@ -5307,16 +6039,16 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="40" t="s">
+      <c r="Y56" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="Z56" s="40" t="s">
+      <c r="Z56" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="AA56" s="40" t="s">
+      <c r="AA56" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="AB56" s="40" t="s">
+      <c r="AB56" s="39" t="s">
         <v>693</v>
       </c>
       <c r="AC56" s="3">
@@ -5380,16 +6112,16 @@
       <c r="BZ56" s="3"/>
     </row>
     <row r="57" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y57" s="40" t="s">
+      <c r="Y57" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="Z57" s="40" t="s">
+      <c r="Z57" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="AA57" s="40" t="s">
+      <c r="AA57" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="AB57" s="40" t="s">
+      <c r="AB57" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC57" s="3">
@@ -5406,16 +6138,16 @@
       </c>
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y58" s="40" t="s">
+      <c r="Y58" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Z58" s="40" t="s">
+      <c r="Z58" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="AA58" s="40" t="s">
+      <c r="AA58" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="AB58" s="40" t="s">
+      <c r="AB58" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC58" s="3">
@@ -5432,16 +6164,16 @@
       </c>
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y59" s="40" t="s">
+      <c r="Y59" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="Z59" s="40" t="s">
+      <c r="Z59" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="AA59" s="40" t="s">
+      <c r="AA59" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="AB59" s="40" t="s">
+      <c r="AB59" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC59" s="3">
@@ -5458,16 +6190,16 @@
       </c>
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y60" s="40" t="s">
-        <v>799</v>
-      </c>
-      <c r="Z60" s="40" t="s">
+      <c r="Y60" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="Z60" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="AA60" s="40" t="s">
+      <c r="AA60" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="AB60" s="40" t="s">
+      <c r="AB60" s="39" t="s">
         <v>296</v>
       </c>
       <c r="AC60" s="3">
@@ -5484,16 +6216,16 @@
       </c>
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y61" s="40" t="s">
+      <c r="Y61" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="Z61" s="40" t="s">
+      <c r="Z61" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="AA61" s="40" t="s">
+      <c r="AA61" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="AB61" s="40" t="s">
+      <c r="AB61" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC61" s="3">
@@ -5510,16 +6242,16 @@
       </c>
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y62" s="40" t="s">
-        <v>800</v>
-      </c>
-      <c r="Z62" s="40" t="s">
+      <c r="Y62" s="39" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z62" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="AA62" s="40" t="s">
+      <c r="AA62" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="AB62" s="40" t="s">
+      <c r="AB62" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC62" s="3">
@@ -5536,16 +6268,16 @@
       </c>
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y63" s="40" t="s">
+      <c r="Y63" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="Z63" s="40" t="s">
+      <c r="Z63" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="AA63" s="40" t="s">
+      <c r="AA63" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="AB63" s="40" t="s">
+      <c r="AB63" s="39" t="s">
         <v>522</v>
       </c>
       <c r="AC63" s="3">
@@ -5562,16 +6294,16 @@
       </c>
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y64" s="40" t="s">
-        <v>801</v>
-      </c>
-      <c r="Z64" s="40" t="s">
+      <c r="Y64" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="Z64" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="AA64" s="40" t="s">
+      <c r="AA64" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="AB64" s="40" t="s">
+      <c r="AB64" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC64" s="3">
@@ -5588,16 +6320,16 @@
       </c>
     </row>
     <row r="65" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y65" s="40" t="s">
+      <c r="Y65" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="Z65" s="40" t="s">
+      <c r="Z65" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="AA65" s="40" t="s">
+      <c r="AA65" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="AB65" s="40" t="s">
+      <c r="AB65" s="39" t="s">
         <v>670</v>
       </c>
       <c r="AC65" s="3">
@@ -5614,16 +6346,16 @@
       </c>
     </row>
     <row r="66" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y66" s="40" t="s">
+      <c r="Y66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="40" t="s">
+      <c r="Z66" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="AA66" s="40" t="s">
+      <c r="AA66" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="AB66" s="40" t="s">
+      <c r="AB66" s="39" t="s">
         <v>198</v>
       </c>
       <c r="AC66" s="3">
@@ -5640,16 +6372,16 @@
       </c>
     </row>
     <row r="67" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y67" s="40" t="s">
+      <c r="Y67" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="Z67" s="40" t="s">
+      <c r="Z67" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="AA67" s="40" t="s">
+      <c r="AA67" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="AB67" s="40" t="s">
+      <c r="AB67" s="39" t="s">
         <v>414</v>
       </c>
       <c r="AC67" s="3">
@@ -5901,7 +6633,7 @@
     </row>
     <row r="77" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y77" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Z77" s="3" t="s">
         <v>282</v>
@@ -6135,13 +6867,13 @@
     </row>
     <row r="86" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y86" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Z86" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AA86" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AB86" s="3" t="s">
         <v>522</v>
@@ -6551,13 +7283,13 @@
     </row>
     <row r="102" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y102" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Z102" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AB102" s="3" t="s">
         <v>522</v>
@@ -6681,13 +7413,13 @@
     </row>
     <row r="107" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y107" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Z107" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AA107" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AB107" s="3" t="s">
         <v>522</v>
@@ -6707,13 +7439,13 @@
     </row>
     <row r="108" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y108" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="Z108" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AA108" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AB108" s="3" t="s">
         <v>522</v>
@@ -6941,13 +7673,13 @@
     </row>
     <row r="117" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y117" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="Z117" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AA117" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AB117" s="3" t="s">
         <v>522</v>
@@ -7071,13 +7803,13 @@
     </row>
     <row r="122" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y122" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Z122" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AA122" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AB122" s="3" t="s">
         <v>522</v>
@@ -8319,7 +9051,7 @@
     </row>
     <row r="170" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y170" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Z170" s="3" t="s">
         <v>507</v>
@@ -8605,7 +9337,7 @@
     </row>
     <row r="181" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y181" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="Z181" s="3" t="s">
         <v>610</v>
@@ -8917,7 +9649,7 @@
     </row>
     <row r="193" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y193" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Z193" s="3" t="s">
         <v>618</v>
@@ -8943,13 +9675,13 @@
     </row>
     <row r="194" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y194" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="Z194" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AA194" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AB194" s="3" t="s">
         <v>522</v>
@@ -9047,13 +9779,13 @@
     </row>
     <row r="198" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y198" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Z198" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AA198" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AB198" s="3" t="s">
         <v>522</v>
@@ -9541,13 +10273,13 @@
     </row>
     <row r="217" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y217" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="Z217" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AA217" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AB217" s="3" t="s">
         <v>522</v>
@@ -9723,13 +10455,13 @@
     </row>
     <row r="224" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y224" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Z224" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AA224" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AB224" s="3" t="s">
         <v>522</v>
@@ -10165,7 +10897,7 @@
     </row>
     <row r="241" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y241" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Z241" s="3" t="s">
         <v>659</v>
@@ -10295,7 +11027,7 @@
     </row>
     <row r="246" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y246" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Z246" s="3" t="s">
         <v>515</v>
@@ -10425,13 +11157,13 @@
     </row>
     <row r="251" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y251" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="Z251" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AA251" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="AB251" s="3" t="s">
         <v>522</v>
@@ -10607,7 +11339,7 @@
     </row>
     <row r="258" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y258" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Z258" s="3" t="s">
         <v>661</v>
@@ -10659,7 +11391,7 @@
     </row>
     <row r="260" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y260" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Z260" s="3" t="s">
         <v>394</v>
@@ -10685,13 +11417,13 @@
     </row>
     <row r="261" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y261" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Z261" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AA261" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AB261" s="3" t="s">
         <v>522</v>
@@ -10815,13 +11547,13 @@
     </row>
     <row r="266" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y266" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Z266" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AA266" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AB266" s="3" t="s">
         <v>522</v>
@@ -10840,17 +11572,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3oJW00iBYyOQZ8Ev32+4Vzftq6d9wo4D7ixB0gQA1cIUKIFVdv7JwbSv0XebggpOT3HE15HfxJ71IeksNOKzqA==" saltValue="6UDxYzluTwhdjgxLTQJffQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6twbg5IuhYAt0S2IR3IrJqk87b/Bl+uQwD4iyhNNxQzoNndIbD5c7+52CSuPJz9lZBK7qokGEsfxWLFGB/7uNQ==" saltValue="j9TzfXxaa3Wy6826uvVKDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 H8:P15" name="Range1"/>
     <protectedRange sqref="E10:F12 D9:G9 D16:G17 E20:G20 G12 D12 E6:G8 D13:G13 D21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B18:B19"/>
@@ -10864,11 +11596,11 @@
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:G16 E20:G20 E8:G8 G12" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -10881,45 +11613,28 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="V1" listFillRange="dropdownlist" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA208A3-088E-4F83-BC6F-561F259197E7}">
+          <x14:formula1>
+            <xm:f>Validation!$A$3:$A$1024</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10937,74 +11652,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="3" t="e">
+      <c r="N2" s="3">
         <f>Expenditure!V2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="str">
-        <f>Expenditure!V1</f>
-        <v/>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30" t="str">
+      <c r="C4" s="29">
+        <f>Expenditure!C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="str">
         <f>Expenditure!F4</f>
         <v/>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <f>Expenditure!I4</f>
         <v>0</v>
       </c>
@@ -11023,53 +11738,53 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>776</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="57" t="s">
-        <v>775</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="29" t="s">
-        <v>760</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>761</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>769</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -11079,40 +11794,40 @@
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>779</v>
+      <c r="B11" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -11121,12 +11836,12 @@
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -11135,12 +11850,12 @@
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -11149,12 +11864,12 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
@@ -11163,41 +11878,41 @@
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>766</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="D18" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -11207,36 +11922,36 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+        <v>776</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
       <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fIQJzYc0FFGd5YT3t60EnwUX6hDQbxRxi2J/qc9toiRjs7r9koFP6MtmxVQ90T/6angR+OrzYoXc0QztHVqNWw==" saltValue="i0Zy6tooO5K6gdaepp0iAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/zs4AKXJ1R5TZS1EGbziesMZ2UuQXF93VIWHMK2XwqalPYJBfSVMjGynu0LIJY05qIaQbypacjU0W/xwgGgRtg==" saltValue="PJKWlfaKCpjS5eT7ph13DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:I8"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">
@@ -11245,35 +11960,5571 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId4" name="Drop Down 1">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72FFD816-A83C-4338-89DA-EAD964A55BB8}">
+          <x14:formula1>
+            <xm:f>Validation!$D$3:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA942FFB-2C5C-4C2E-9F0E-D154BC523DCB}">
+  <dimension ref="A1:E267"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="str">
+        <f>_ZRsZdd2AvAR</f>
+        <v>NHWA Module 7</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>850</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>849</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="str">
+        <f>_oofyLUJJ6Vy</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="B3" s="59">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="59" t="str">
+        <f>_Xr12mI7VPn3</f>
+        <v>default</v>
+      </c>
+      <c r="D3" s="59" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+      <c r="E3" s="59" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="str">
+        <f>_VGOzFKfSazN</f>
+        <v>Albania</v>
+      </c>
+      <c r="D4" s="59" t="str">
+        <f>_false</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="str">
+        <f>_mNa42CHbkO7</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="str">
+        <f>_VYVKdqiXo4b</f>
+        <v>American Samoa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="str">
+        <f>_Rmy6DbwekE1</f>
+        <v>Andorra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="str">
+        <f>_jFOZHDZpjPL</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="str">
+        <f>_f4ZFD2aswys</f>
+        <v>Anguilla</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="str">
+        <f>_pfhvgmllA9M</f>
+        <v>Antigua and Barbuda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="str">
+        <f>_AZdPnw0b1lm</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="str">
+        <f>_cWrL45je7mw</f>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="str">
+        <f>_lKZR6UK0afN</f>
+        <v>Aruba</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="str">
+        <f>_LbWpsX1FJcC</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="str">
+        <f>_e9IoKRAkYLO</f>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="str">
+        <f>_ST86paYjRHP</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="str">
+        <f>_VbbSe7wgS9s</f>
+        <v>Bahamas</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="str">
+        <f>_T7tKHiW1Db1</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="str">
+        <f>_dNLjKwsVjod</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="str">
+        <f>_iNT35p3jsEM</f>
+        <v>Barbados</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="str">
+        <f>_Tr4i6jeDDqj</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="str">
+        <f>_KwgjnBBpe5b</f>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="str">
+        <f>_Nrnay4JA8Ga</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="str">
+        <f>_DzAOqCf0ots</f>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="str">
+        <f>_ZzoDfdWIt6z</f>
+        <v>Bermuda</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="str">
+        <f>_JQ5qF3mRCMe</f>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="str">
+        <f>_cpmmPDsQ3uG</f>
+        <v>Bolivia (Plurinational State of)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="str">
+        <f>_wyKC2eWRH3y</f>
+        <v>Bonaire, Saint Eustatius and Saba</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="str">
+        <f>_n8iofJiiX4T</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="str">
+        <f>_c82mDnhUQly</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="str">
+        <f>_sg5v6c9tCZ3</f>
+        <v>Bouvet Island</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="str">
+        <f>_dpcvWc01CeN</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="str">
+        <f>_PFAtPR87fHs</f>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="str">
+        <f>_u7H4MyT2Y0A</f>
+        <v>British Virgin Islands</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="str">
+        <f>_MJEntShoQVK</f>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="str">
+        <f>_AjeCGGb8H76</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="str">
+        <f>_hmZE3mVAZFf</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="str">
+        <f>_Xz7rnovuiOx</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="str">
+        <f>_bGWaeVBrOcc</f>
+        <v>Cabo Verde</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="str">
+        <f>_dscgTvwyCw8</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="str">
+        <f>_VPesUmegQpP</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="str">
+        <f>_AJBfDthkySs</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="str">
+        <f>_u3GOCB1Hu01</f>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="str">
+        <f>_ZcrjvJaYQb7</f>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="str">
+        <f>_tV0rWhHr9cj</f>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="str">
+        <f>_zFInPJBZVbN</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="str">
+        <f>_q23bFLr2E5D</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="str">
+        <f>_myv7amOYTHn</f>
+        <v>China, Hong Kong SAR</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="59" t="str">
+        <f>_y582ESg0Vjo</f>
+        <v>China, Macao SAR</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="str">
+        <f>_lGN2n7pZ6Ua</f>
+        <v>China, Province of Taiwan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="str">
+        <f>_a0Tb0vzKk1m</f>
+        <v>China: Province of Taiwan only</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="str">
+        <f>_XjHXb0aFH5w</f>
+        <v>Christmas Island</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="str">
+        <f>_AFIorEPU00q</f>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="str">
+        <f>_jXQq22U4Y2e</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="str">
+        <f>_RTdjvXHJdnH</f>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="str">
+        <f>_shRXArPWh8H</f>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="str">
+        <f>_TldYkeCwb5r</f>
+        <v>Cook Islands</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="str">
+        <f>_pbH6bmcioGw</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="str">
+        <f>_lbMrRSBsXh3</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="str">
+        <f>_Zdl3ad7PayF</f>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="str">
+        <f>_QSpLidCdqMU</f>
+        <v>Curaçao</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="str">
+        <f>_Mb9IYOFZYCv</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="str">
+        <f>_XKKI1hhyFxk</f>
+        <v>Czechia</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="str">
+        <f>_NhuW760cOQG</f>
+        <v>Czechoslovakia, Former</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="str">
+        <f>_WXGcnQWJ0Qd</f>
+        <v>Côte d'Ivoire</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="59" t="str">
+        <f>_OFXJXWnOG0R</f>
+        <v>Democratic People's Republic of Korea</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="59" t="str">
+        <f>_EDHO4qOyY88</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="59" t="str">
+        <f>_CCl7hAqlrmE</f>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="59" t="str">
+        <f>_Yg9QkNQk9p7</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="str">
+        <f>_s1mzBU7YOaZ</f>
+        <v>Dominica</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="str">
+        <f>_PpjdOoVUc7k</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="str">
+        <f>_LAPR4Iu2NVS</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="str">
+        <f>_JIr15Xt3EQn</f>
+        <v>Egypt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="59" t="str">
+        <f>_Mk7P920hkBa</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="59" t="str">
+        <f>_Fi5lLVwe1Th</f>
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="59" t="str">
+        <f>_vnbnnSZXGTv</f>
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59" t="str">
+        <f>_XeWqwCw9G5s</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="59" t="str">
+        <f>_G3thRWUQAX9</f>
+        <v>Eswatini</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="59" t="str">
+        <f>_zEYrsiNUGIo</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="59" t="str">
+        <f>_PRrdILmQQb3</f>
+        <v>Falkland Islands (Malvinas)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="str">
+        <f>_ngUSWwX0Oby</f>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="59" t="str">
+        <f>_sSIYRwB1r74</f>
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="59" t="str">
+        <f>_bnQX2QIuIY9</f>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="59" t="str">
+        <f>_VnTycSnraEY</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="59" t="str">
+        <f>_UJVEh0g7qOo</f>
+        <v>French Guiana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="str">
+        <f>_QLERXr2o7IE</f>
+        <v>French Polynesia</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="str">
+        <f>_BLpPqpMtgQY</f>
+        <v>French Southern Territories</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="str">
+        <f>_EGLpIMSAWhx</f>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="str">
+        <f>_z51rgcc5R8V</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="59" t="str">
+        <f>_fg8TSIHSGHX</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="59" t="str">
+        <f>_Ri2tb7LBVtP</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="59" t="str">
+        <f>_hgGOTFYZxMO</f>
+        <v>Germany, Former Democratic Republic</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="59" t="str">
+        <f>_E9G2aQpCs1A</f>
+        <v>Germany, Former Federal Republic</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="59" t="str">
+        <f>_Fq9qs6Kn6wN</f>
+        <v>Germany, West Berlin</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="59" t="str">
+        <f>_WC5rU5fLMzY</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="59" t="str">
+        <f>_BVzmce6DVeS</f>
+        <v>Gibraltar</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="59" t="str">
+        <f>_eyvitcZL4ex</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="59" t="str">
+        <f>_IZy3ESdFnp5</f>
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59" t="str">
+        <f>_gg9DH7dvdeD</f>
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="str">
+        <f>_cRWrIpjzvVl</f>
+        <v>Guadeloupe</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="59" t="str">
+        <f>_q9u7nkNkuGy</f>
+        <v>Guam</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="59" t="str">
+        <f>_bhkJDAiqVKX</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="59" t="str">
+        <f>_NUkOvK4bnj2</f>
+        <v>Guernsey</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="59" t="str">
+        <f>_quQpOfBIDFC</f>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="59" t="str">
+        <f>_G9o5ad4oJJX</f>
+        <v>Guinea-Bissau</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="str">
+        <f>_AUStREIxT4s</f>
+        <v>Guyana</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="str">
+        <f>_ipe4pT2TW7G</f>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="str">
+        <f>_apVWLKfARpb</f>
+        <v>Heard Island and McDonald Islands</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="59" t="str">
+        <f>_jZOt27rWre8</f>
+        <v>Holy See</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="59" t="str">
+        <f>_mDSuyD9lOM5</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="59" t="str">
+        <f>_g49fuSiB623</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="59" t="str">
+        <f>_Bc3mYAhlY1a</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="59" t="str">
+        <f>_WApLDd37Yj2</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="str">
+        <f>_jVqoXv7rFns</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="str">
+        <f>_SsAjVE1S87E</f>
+        <v>Iran (Islamic Republic of)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="59" t="str">
+        <f>_fHXW26zg2U6</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="59" t="str">
+        <f>_uvTw0Kus5KZ</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="59" t="str">
+        <f>_ehNfKt5LpG9</f>
+        <v>Isle of Man</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="str">
+        <f>_XebDUbuPqVx</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="59" t="str">
+        <f>_ElwEWppmGgv</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="59" t="str">
+        <f>_x6DVvicRjYC</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="59" t="str">
+        <f>_JI5lagoUJR4</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="59" t="str">
+        <f>_XJscL6IuHpd</f>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="59" t="str">
+        <f>_GWQBgBHdbbp</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="59" t="str">
+        <f>_ibGsqmiVkoU</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="59" t="str">
+        <f>_HfVjCurKxh2</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="59" t="str">
+        <f>_Nlv8oKkoAwp</f>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="59" t="str">
+        <f>_tnTRnfd2aVs</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="59" t="str">
+        <f>_tDFavWinSwr</f>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="59" t="str">
+        <f>_bvyjEfI0d2V</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="59" t="str">
+        <f>_gxi9jcBYyrL</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="59" t="str">
+        <f>_ACalScnrl2I</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="59" t="str">
+        <f>_D4JnxOsqwE4</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="59" t="str">
+        <f>_JEHwU064LAj</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="59" t="str">
+        <f>_zaluKz5Llai</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="59" t="str">
+        <f>_gMz0MxjZcEt</f>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="59" t="str">
+        <f>_T1irZBQ9gNW</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="59" t="str">
+        <f>_mmJUi0PpvGi</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="59" t="str">
+        <f>_bcy4159FETR</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="59" t="str">
+        <f>_G037PAPU5dO</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="59" t="str">
+        <f>_BmTVMvJHVBO</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="59" t="str">
+        <f>_FOJUXD6f6lB</f>
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="59" t="str">
+        <f>_EubjsxqlA4d</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="59" t="str">
+        <f>_TIhakAVsQwM</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="59" t="str">
+        <f>_Ajnw1b8m6eL</f>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="59" t="str">
+        <f>_v2B5AtYQV8H</f>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="59" t="str">
+        <f>_XYpsN5j30R9</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="59" t="str">
+        <f>_EB4aSZN0eQr</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="59" t="str">
+        <f>_Bon3xyAAWKf</f>
+        <v>Mayotte</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="59" t="str">
+        <f>_KAUSOoBq5Ft</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="59" t="str">
+        <f>_lnvESj20mWZ</f>
+        <v>Micronesia (Federated States of)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="59" t="str">
+        <f>_cZ8823L0fLJ</f>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="59" t="str">
+        <f>_IZSm5iPKkDg</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="59" t="str">
+        <f>_JX7HJfPfbog</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="59" t="str">
+        <f>_B4iWc3gcDcn</f>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="59" t="str">
+        <f>_WuQvgvXKamv</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="59" t="str">
+        <f>_Gan3VYicAWe</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="59" t="str">
+        <f>_YOL13ptz4ef</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="59" t="str">
+        <f>_rtLnlu4GUI2</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="59" t="str">
+        <f>_Pz0LCggcqES</f>
+        <v>Nauru</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="59" t="str">
+        <f>_pZZriU4sY0l</f>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="59" t="str">
+        <f>_rEQqufy2KNi</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="59" t="str">
+        <f>_COs48yLdDvg</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="59" t="str">
+        <f>_jMGr96nGwHN</f>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="59" t="str">
+        <f>_hG1CNbw8wSF</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="59" t="str">
+        <f>_wnuoeS9sVZR</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="59" t="str">
+        <f>_O0hWoXlHhIS</f>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="59" t="str">
+        <f>_I3NxIqG7bD4</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="59" t="str">
+        <f>_KqaTbKanCG3</f>
+        <v>Niue</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="59" t="str">
+        <f>_O7BGyJhV2Tc</f>
+        <v>Norfolk Island</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="59" t="str">
+        <f>_cfBaKMnsXd1</f>
+        <v>North Macedonia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="59" t="str">
+        <f>_vPoFz9J1v6Y</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="59" t="str">
+        <f>_oy494aJtjTB</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="59" t="str">
+        <f>_G8FCnT37gyb</f>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="59" t="str">
+        <f>_yzAMOdV0Pmr</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="59" t="str">
+        <f>_iFaKKDtb7nf</f>
+        <v>Palau</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="59" t="str">
+        <f>_wUBWZEHJm6Q</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="59" t="str">
+        <f>_Zav7juzGmEo</f>
+        <v>Papua New Guinea</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="59" t="str">
+        <f>_Wpzccx0vjIP</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="59" t="str">
+        <f>_vkXlj7ZPkGi</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="59" t="str">
+        <f>_QkOClVdLto1</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="59" t="str">
+        <f>_fHaKXfcKthe</f>
+        <v>Pitcairn</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="59" t="str">
+        <f>_wMTP4GblKr8</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="59" t="str">
+        <f>_PevCwH17M73</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="59" t="str">
+        <f>_w3IJVQhc8Rm</f>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="59" t="str">
+        <f>_jCtFxm8aADJ</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="59" t="str">
+        <f>_IbGbsybdeou</f>
+        <v>Republic of Korea</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="59" t="str">
+        <f>_yBqy4nxuOCA</f>
+        <v>Republic of Moldova</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="59" t="str">
+        <f>_ZRxKEGQmkWI</f>
+        <v>Rodrigues</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="59" t="str">
+        <f>_N9i1v07Ro0E</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="59" t="str">
+        <f>_i3v8r9XNls2</f>
+        <v>Russian Federation</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="59" t="str">
+        <f>_UlQiEogy3wG</f>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="59" t="str">
+        <f>_LTLHCOHyyWS</f>
+        <v>Ryu Kyu Islands</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="59" t="str">
+        <f>_VwqhqUCaMgk</f>
+        <v>Réunion</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="59" t="str">
+        <f>_GPyOOoIby8R</f>
+        <v>Saint Barthélemy</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="59" t="str">
+        <f>_aZ7Bm5L90rn</f>
+        <v>Saint Helena</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="59" t="str">
+        <f>_BlC8wOVHBlb</f>
+        <v>Saint Kitts and Nevis</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="59" t="str">
+        <f>_RyAd6laKg3U</f>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="59" t="str">
+        <f>_tSBEjAHKj9V</f>
+        <v>Saint Martin (French part)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="59" t="str">
+        <f>_HYEuE8zV74t</f>
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="59" t="str">
+        <f>_ZgsdoEiTlLq</f>
+        <v>Saint Vincent and the Grenadines</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="59" t="str">
+        <f>_hpXoMVtJpT3</f>
+        <v>Samoa</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="59" t="str">
+        <f>_SAsS1Kwc4iW</f>
+        <v>San Marino</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="59" t="str">
+        <f>_FNduj2N3e8s</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="59" t="str">
+        <f>_xB6nQN5Wtpg</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="59" t="str">
+        <f>_wj7iV08dvFq</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="59" t="str">
+        <f>_oroMC4mMzMq</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="59" t="str">
+        <f>_HizhPCC5Ps5</f>
+        <v>Serbia and Montenegro, Former</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="59" t="str">
+        <f>_wimH12ukPK5</f>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="59" t="str">
+        <f>_qbqrFLCJewu</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="59" t="str">
+        <f>_rb6V38jgfFc</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="59" t="str">
+        <f>_cCgL3J7Lsgn</f>
+        <v>Sint Maarten (Dutch part)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="59" t="str">
+        <f>_RDiXMdNXg16</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="59" t="str">
+        <f>_PY4aKgi30fr</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="59" t="str">
+        <f>_FUieyovDec8</f>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="59" t="str">
+        <f>_oWNF4d3PK8C</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="59" t="str">
+        <f>_lVPoUAKCdmU</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="59" t="str">
+        <f>_z5ouOuycTPO</f>
+        <v>South Georgia and the South Sandwich Islands</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="59" t="str">
+        <f>_mhWSEv79IJW</f>
+        <v>South Sudan</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="59" t="str">
+        <f>_DVnpk4xiXGJ</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="59" t="str">
+        <f>_er7MPiN3tdH</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="59" t="str">
+        <f>_QqAzWHtJ8VC</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="59" t="str">
+        <f>_IjLnDADGraQ</f>
+        <v>Sudan (former)</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="59" t="str">
+        <f>_jkyBvNzcTLl</f>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="59" t="str">
+        <f>_TWyMjVaaxmT</f>
+        <v>Svalbard and Jan Mayen</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="59" t="str">
+        <f>_IFAb1JUZ0Fz</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="59" t="str">
+        <f>_q2HqXV5OO3z</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="59" t="str">
+        <f>_HDN85xUGB65</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="59" t="str">
+        <f>_xb2ezJcUoSR</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="59" t="str">
+        <f>_vboedbUs1As</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="59" t="str">
+        <f>_pGLy2Zj2lVg</f>
+        <v>The former state union Serbia and Montenegro</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="59" t="str">
+        <f>_cJU4qStc9QT</f>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="59" t="str">
+        <f>_WtcZBCTspgM</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="59" t="str">
+        <f>_VMqDEughMuP</f>
+        <v>Tokelau</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="59" t="str">
+        <f>_zYQqFxQw5jj</f>
+        <v>Tonga</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="59" t="str">
+        <f>_fYeClLy8K2x</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="59" t="str">
+        <f>_pMukkUmnnkh</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="59" t="str">
+        <f>_eVEK7djdWqV</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="59" t="str">
+        <f>_HwqfuL9pQz5</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="59" t="str">
+        <f>_vg4b11FL2Gl</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="59" t="str">
+        <f>_GrU8zQv510v</f>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="59" t="str">
+        <f>_M9HrCkIwaKy</f>
+        <v>US Virgin Islands</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="59" t="str">
+        <f>_wFkq5oB0dFS</f>
+        <v>USSR, Former</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="59" t="str">
+        <f>_SnYHrnchKjL</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="59" t="str">
+        <f>_VJrTuNXAg9G</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="59" t="str">
+        <f>_aNIrqpwcKXv</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="59" t="str">
+        <f>_Gnz4lqrVEMf</f>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="59" t="str">
+        <f>_TpDwlm2Spev</f>
+        <v>United Kingdom, England and Wales</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="59" t="str">
+        <f>_Q8De2VxoKXS</f>
+        <v>United Kingdom, Northern Ireland</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="59" t="str">
+        <f>_Gvox4WmLiYC</f>
+        <v>United Kingdom, Scotland</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="59" t="str">
+        <f>_S52uSY3lb8V</f>
+        <v>United Republic of Tanzania</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="59" t="str">
+        <f>_KOUhvjWIy6V</f>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="59" t="str">
+        <f>_AYWCbVecRKQ</f>
+        <v>United States of America</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="59" t="str">
+        <f>_PJS910L8KtX</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="59" t="str">
+        <f>_kpFgAwwSjCZ</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="59" t="str">
+        <f>_xqjIL1cGrl1</f>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="59" t="str">
+        <f>_fkrzFaeuYDn</f>
+        <v>Venezuela (Bolivarian Republic of)</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="59" t="str">
+        <f>_av3fkpFxEXj</f>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="59" t="str">
+        <f>_eVp1pvRfPKS</f>
+        <v>Wallis and Futuna</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="59" t="str">
+        <f>_KrU8C1YTdao</f>
+        <v>West Bank</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="59" t="str">
+        <f>_juBxu3AprlM</f>
+        <v>West Bank and Gaza Strip</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="59" t="str">
+        <f>_PvrMV4NjbtR</f>
+        <v>Western Sahara</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="59" t="str">
+        <f>_HX7fBSMCCbL</f>
+        <v>Yemen</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="59" t="str">
+        <f>_fIlPGTXBCUm</f>
+        <v>Yugoslavia, Former</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="59" t="str">
+        <f>_gb7vWtO7Wjp</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="59" t="str">
+        <f>_buSEeeViTo3</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="59" t="str">
+        <f>_Adzexk8xbzD</f>
+        <v>Åland Islands</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="U1aMsUIeB87xIbvDXMJQkReoDC4MjGM2q/eSws12XCFuRq/OUJRHED0MiplyhYgN3ePubIrgVqc28CUCUGVbzA==" saltValue="5zShV+BcDPCuEUDrndeOSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B10025-0F94-4FF3-9575-22668F843B59}">
+  <dimension ref="A1:F347"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="80" style="59" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>998</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>997</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>996</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>995</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>993</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>992</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>991</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>990</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>989</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>988</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>987</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>986</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>983</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>977</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>976</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>975</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>973</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>972</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>971</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>970</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>969</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>968</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>966</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>964</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>962</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>960</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>956</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>955</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>953</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>952</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>950</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>948</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>946</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>944</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>942</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
+        <v>940</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
+        <v>936</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
+        <v>935</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
+        <v>933</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>931</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
+        <v>929</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
+        <v>927</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>923</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="s">
+        <v>921</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="59" t="s">
+        <v>919</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
+        <v>917</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
+        <v>916</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
+        <v>914</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
+        <v>912</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>911</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="s">
+        <v>909</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
+        <v>907</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>905</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
+        <v>902</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
+        <v>900</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
+        <v>898</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
+        <v>894</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="s">
+        <v>892</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="s">
+        <v>888</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="59" t="s">
+        <v>886</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="59" t="s">
+        <v>884</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="59" t="s">
+        <v>882</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="59" t="s">
+        <v>880</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
+        <v>878</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
+        <v>876</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="s">
+        <v>874</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="s">
+        <v>872</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="59" t="s">
+        <v>870</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="59" t="s">
+        <v>868</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="59" t="s">
+        <v>866</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="59" t="s">
+        <v>864</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C90" s="59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C93" s="59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="B94" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C94" s="59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="59" t="s">
+        <v>778</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C97" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C102" s="59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="B104" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="B106" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C106" s="59" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="59" t="s">
+        <v>780</v>
+      </c>
+      <c r="B109" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="59" t="s">
+        <v>783</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="B112" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C112" s="59" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="B113" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C113" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="B114" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="59" t="s">
+        <v>696</v>
+      </c>
+      <c r="B118" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B120" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="B121" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C121" s="59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C123" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="59" t="s">
+        <v>699</v>
+      </c>
+      <c r="B125" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="B127" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="B128" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="B129" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="59" t="s">
+        <v>791</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C130" s="59" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="59" t="s">
+        <v>794</v>
+      </c>
+      <c r="B131" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="B132" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C132" s="59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C133" s="59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C134" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="59" t="s">
+        <v>701</v>
+      </c>
+      <c r="B135" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C135" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C136" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="B137" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C137" s="59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B138" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C138" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="B139" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C139" s="59" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B140" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="B141" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C141" s="59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C142" s="59" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C144" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="B146" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C146" s="59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C147" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C148" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C149" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C150" s="59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B151" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B152" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C152" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C153" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C154" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C155" s="59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C156" s="59" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C157" s="59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C158" s="59" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C159" s="59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="59" t="s">
+        <v>703</v>
+      </c>
+      <c r="B160" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C160" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="B161" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C161" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="B162" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C162" s="59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="B163" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C163" s="59" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="B164" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="59" t="s">
+        <v>801</v>
+      </c>
+      <c r="B165" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C166" s="59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C167" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="B168" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C168" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="B169" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C169" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="B170" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C170" s="59" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C172" s="59" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B173" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C173" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="B174" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C174" s="59" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="B175" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C175" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="B176" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C176" s="59" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="B177" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C177" s="59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="B178" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C178" s="59" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="B179" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C179" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B180" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C180" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="59" t="s">
+        <v>804</v>
+      </c>
+      <c r="B181" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C181" s="59" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B182" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C182" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C183" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="B184" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C184" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B185" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C185" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="59" t="s">
+        <v>807</v>
+      </c>
+      <c r="B186" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C186" s="59" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C187" s="59" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="B188" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C188" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B189" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C189" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="B190" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C190" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="B191" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C191" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="B192" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C192" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C193" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C194" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="B195" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C195" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="59" t="s">
+        <v>813</v>
+      </c>
+      <c r="B196" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C196" s="59" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="B197" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C197" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C198" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B199" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C199" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="B200" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C200" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="59" t="s">
+        <v>816</v>
+      </c>
+      <c r="B201" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C201" s="59" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B202" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C202" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="B203" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C203" s="59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B204" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C204" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="59" t="s">
+        <v>707</v>
+      </c>
+      <c r="B205" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C205" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B206" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C206" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="B207" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C207" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="59" t="s">
+        <v>709</v>
+      </c>
+      <c r="B208" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C208" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B209" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C209" s="59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C210" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B211" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C211" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B212" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C212" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="B213" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C213" s="59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="B214" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C214" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="B215" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C215" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="59" t="s">
+        <v>469</v>
+      </c>
+      <c r="B216" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C216" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B217" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C217" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B218" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C218" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="59" t="s">
+        <v>711</v>
+      </c>
+      <c r="B219" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C219" s="59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="B220" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C220" s="59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C221" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C222" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="59" t="s">
+        <v>713</v>
+      </c>
+      <c r="B223" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C223" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="B224" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C224" s="59" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B225" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C225" s="59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B226" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C226" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="B227" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C227" s="59" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="B228" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C228" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="B229" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C229" s="59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B230" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C230" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="59" t="s">
+        <v>717</v>
+      </c>
+      <c r="B231" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C231" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="B232" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C232" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="B233" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C233" s="59" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="B234" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C234" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B235" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C235" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="B236" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C236" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B237" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C237" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="B238" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C238" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="59" t="s">
+        <v>683</v>
+      </c>
+      <c r="B239" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C239" s="59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C240" s="59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="59" t="s">
+        <v>599</v>
+      </c>
+      <c r="B241" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C241" s="59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="B242" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C242" s="59" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="B243" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C243" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B244" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C244" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B245" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C245" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B246" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C246" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="B247" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C247" s="59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="B248" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C248" s="59" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="B249" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C249" s="59" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="B250" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C250" s="59" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="B251" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C251" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="B252" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C252" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="B253" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C253" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="B254" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C254" s="59" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B255" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C255" s="59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="B256" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C256" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="B257" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C257" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B258" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C258" s="59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="B259" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C259" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="B260" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C260" s="59" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="B261" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C261" s="59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="B262" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C262" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="B263" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C263" s="59" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="B264" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C264" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="B265" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C265" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="B266" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C266" s="59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="B267" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C267" s="59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="B268" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C268" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="B269" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C269" s="59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B270" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C270" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="B271" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C271" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="B272" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C272" s="59" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="59" t="s">
+        <v>822</v>
+      </c>
+      <c r="B273" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C273" s="59" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="59" t="s">
+        <v>624</v>
+      </c>
+      <c r="B274" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C274" s="59" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B275" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C275" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="B276" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C276" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="B277" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C277" s="59" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="B278" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C278" s="59" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B279" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C279" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="B280" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C280" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="B281" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C281" s="59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C282" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B283" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C283" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B284" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C284" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="B285" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C285" s="59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="B286" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C286" s="59" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B287" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B288" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C288" s="59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="B289" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C289" s="59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="B290" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C290" s="59" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="B291" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C291" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="B292" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C292" s="59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="59" t="s">
+        <v>738</v>
+      </c>
+      <c r="B293" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C293" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="B294" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C294" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B295" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="59" t="s">
+        <v>828</v>
+      </c>
+      <c r="B296" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C296" s="59" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B297" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C297" s="59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B298" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C298" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="59" t="s">
+        <v>685</v>
+      </c>
+      <c r="B299" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C299" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="B300" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C300" s="59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="B301" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C301" s="59" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B302" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C302" s="59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="59" t="s">
+        <v>831</v>
+      </c>
+      <c r="B303" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C303" s="59" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="B304" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C304" s="59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="B305" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C305" s="59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B306" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C306" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B307" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C307" s="59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="59" t="s">
+        <v>687</v>
+      </c>
+      <c r="B308" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C308" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="59" t="s">
+        <v>639</v>
+      </c>
+      <c r="B309" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C309" s="59" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="B310" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C310" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B311" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C311" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="59" t="s">
+        <v>642</v>
+      </c>
+      <c r="B312" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C312" s="59" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="B313" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C313" s="59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B314" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C314" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B315" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C315" s="59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="B316" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C316" s="59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="B317" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C317" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="59" t="s">
+        <v>645</v>
+      </c>
+      <c r="B318" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C318" s="59" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="B319" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C319" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="B320" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C320" s="59" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="B321" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C321" s="59" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="B322" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C322" s="59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B323" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C323" s="59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="B324" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C324" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="B325" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C325" s="59" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="59" t="s">
+        <v>648</v>
+      </c>
+      <c r="B326" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C326" s="59" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="B327" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C327" s="59" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C328" s="59" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="B329" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C329" s="59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="59" t="s">
+        <v>836</v>
+      </c>
+      <c r="B330" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C330" s="59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="B331" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C331" s="59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="B332" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C332" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="B333" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C333" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="59" t="s">
+        <v>744</v>
+      </c>
+      <c r="B334" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C334" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B335" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C335" s="59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="59" t="s">
+        <v>746</v>
+      </c>
+      <c r="B336" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C336" s="59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="B337" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C337" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="B338" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C338" s="59" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="B339" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C339" s="59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="59" t="s">
+        <v>841</v>
+      </c>
+      <c r="B340" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C340" s="59" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="B341" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C341" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="B342" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C342" s="59" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="B343" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C343" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B344" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C344" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="59" t="s">
+        <v>844</v>
+      </c>
+      <c r="B345" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="C345" s="59" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="59" t="s">
+        <v>856</v>
+      </c>
+      <c r="B346" s="59" t="s">
+        <v>853</v>
+      </c>
+      <c r="C346" s="59" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B347" s="59" t="s">
+        <v>853</v>
+      </c>
+      <c r="C347" s="59" t="s">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fEvLClqcytjM+u+shMYi+wbYkxCTnWGNP/LrhPztG9iLq0iRDohtbOKaPb0KDpamTMySKxUtf8j/ygrycLMysA==" saltValue="NJ31qKQ3saGqruibGXLOeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/templates/NHWA_Module_7.xlsx
+++ b/public/templates/NHWA_Module_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF630FE-1727-4DD0-AA47-EDF40CBACC20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DC464-98DB-4D73-A5A6-4E32091BFCFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vRoAhS0rW8VdaCjC0jiNkyzhfUhUN8O0GIavS/WNYJOr4UGcqTfBGSfxANT2utkB68Nc8OFRdzVPgsHM1hjZNw==" workbookSaltValue="OBPkzVWhmznmZsKgV0qbjw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3674,7 +3674,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3784,18 +3784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3806,9 +3797,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3840,15 +3840,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4239,16 +4236,16 @@
       <c r="A1" s="40" t="s">
         <v>846</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4277,16 +4274,16 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4379,7 +4376,7 @@
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="42"/>
       <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
@@ -4460,18 +4457,18 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>751</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="N6" s="11"/>
@@ -4479,8 +4476,8 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
       <c r="Y6" s="3" t="s">
         <v>107</v>
       </c>
@@ -4507,9 +4504,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="31" t="s">
         <v>759</v>
       </c>
@@ -4557,10 +4554,10 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>762</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -4640,16 +4637,16 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47" t="s">
         <v>757</v>
       </c>
       <c r="H10" s="14"/>
@@ -4687,12 +4684,12 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="N11" s="13"/>
@@ -4731,12 +4728,12 @@
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>758</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="33"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -4814,22 +4811,22 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>753</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="44" t="s">
         <v>754</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="44" t="s">
         <v>752</v>
       </c>
       <c r="H14" s="14"/>
@@ -4867,12 +4864,12 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="N15" s="13"/>
@@ -4987,20 +4984,20 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="48" t="s">
         <v>755</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="48" t="s">
         <v>752</v>
       </c>
       <c r="H18" s="14"/>
@@ -5031,12 +5028,12 @@
       </c>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
       <c r="Y19" s="39" t="s">
         <v>54</v>
       </c>
@@ -5066,10 +5063,10 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>773</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -11578,11 +11575,11 @@
     <protectedRange sqref="E10:F12 D9:G9 D16:G17 E20:G20 G12 D12 E6:G8 D13:G13 D21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B18:B19"/>
@@ -11596,11 +11593,11 @@
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:G16 E20:G20 E8:G8 G12" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -11652,32 +11649,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -11738,36 +11735,36 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>775</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="58" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="59" t="s">
         <v>774</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="28" t="s">
         <v>759</v>
       </c>
@@ -11887,32 +11884,32 @@
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="47" t="s">
         <v>765</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -11924,34 +11921,34 @@
       <c r="C20" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
       <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/zs4AKXJ1R5TZS1EGbziesMZ2UuQXF93VIWHMK2XwqalPYJBfSVMjGynu0LIJY05qIaQbypacjU0W/xwgGgRtg==" saltValue="PJKWlfaKCpjS5eT7ph13DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+QEbdy8TEhNe0Re9Q6gU01GXjDutfK9rz+Sy/3URcFRRqM9mG/dPgQwb2Z6q9i217/p9QAp6d6hAUdiIHWgj/Q==" saltValue="/UNZnXO91oRJlOOV00o24w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:I8"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">
@@ -11965,7 +11962,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72FFD816-A83C-4338-89DA-EAD964A55BB8}">
           <x14:formula1>
-            <xm:f>Validation!$D$3:$D$4</xm:f>
+            <xm:f>Validation!$D$3:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>D20</xm:sqref>
         </x14:dataValidation>
@@ -11986,1641 +11983,1641 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="59"/>
+    <col min="1" max="16384" width="12.5703125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="str">
+      <c r="A1" s="61" t="str">
         <f>_ZRsZdd2AvAR</f>
         <v>NHWA Module 7</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="41" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="41" t="s">
         <v>850</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="41" t="s">
         <v>849</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="41" t="s">
         <v>848</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="41" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="str">
+      <c r="A3" s="41" t="str">
         <f>_oofyLUJJ6Vy</f>
         <v>Afghanistan</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="41">
         <v>2019</v>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="41" t="str">
         <f>_Xr12mI7VPn3</f>
         <v>default</v>
       </c>
-      <c r="D3" s="59" t="str">
+      <c r="D3" s="41" t="str">
         <f>_true</f>
         <v>Yes</v>
       </c>
-      <c r="E3" s="59" t="str">
+      <c r="E3" s="41" t="str">
         <f>_true</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="str">
+      <c r="A4" s="41" t="str">
         <f>_VGOzFKfSazN</f>
         <v>Albania</v>
       </c>
-      <c r="D4" s="59" t="str">
+      <c r="D4" s="41" t="str">
         <f>_false</f>
         <v>No</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="str">
+      <c r="A5" s="41" t="str">
         <f>_mNa42CHbkO7</f>
         <v>Algeria</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="str">
+      <c r="A6" s="41" t="str">
         <f>_VYVKdqiXo4b</f>
         <v>American Samoa</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="str">
+      <c r="A7" s="41" t="str">
         <f>_Rmy6DbwekE1</f>
         <v>Andorra</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="str">
+      <c r="A8" s="41" t="str">
         <f>_jFOZHDZpjPL</f>
         <v>Angola</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="str">
+      <c r="A9" s="41" t="str">
         <f>_f4ZFD2aswys</f>
         <v>Anguilla</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="str">
+      <c r="A10" s="41" t="str">
         <f>_pfhvgmllA9M</f>
         <v>Antigua and Barbuda</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="str">
+      <c r="A11" s="41" t="str">
         <f>_AZdPnw0b1lm</f>
         <v>Argentina</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="str">
+      <c r="A12" s="41" t="str">
         <f>_cWrL45je7mw</f>
         <v>Armenia</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="str">
+      <c r="A13" s="41" t="str">
         <f>_lKZR6UK0afN</f>
         <v>Aruba</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="str">
+      <c r="A14" s="41" t="str">
         <f>_LbWpsX1FJcC</f>
         <v>Australia</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="str">
+      <c r="A15" s="41" t="str">
         <f>_e9IoKRAkYLO</f>
         <v>Austria</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="str">
+      <c r="A16" s="41" t="str">
         <f>_ST86paYjRHP</f>
         <v>Azerbaijan</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="str">
+      <c r="A17" s="41" t="str">
         <f>_VbbSe7wgS9s</f>
         <v>Bahamas</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="str">
+      <c r="A18" s="41" t="str">
         <f>_T7tKHiW1Db1</f>
         <v>Bahrain</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="str">
+      <c r="A19" s="41" t="str">
         <f>_dNLjKwsVjod</f>
         <v>Bangladesh</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="str">
+      <c r="A20" s="41" t="str">
         <f>_iNT35p3jsEM</f>
         <v>Barbados</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="str">
+      <c r="A21" s="41" t="str">
         <f>_Tr4i6jeDDqj</f>
         <v>Belarus</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="str">
+      <c r="A22" s="41" t="str">
         <f>_KwgjnBBpe5b</f>
         <v>Belgium</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="str">
+      <c r="A23" s="41" t="str">
         <f>_Nrnay4JA8Ga</f>
         <v>Belize</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="str">
+      <c r="A24" s="41" t="str">
         <f>_DzAOqCf0ots</f>
         <v>Benin</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="str">
+      <c r="A25" s="41" t="str">
         <f>_ZzoDfdWIt6z</f>
         <v>Bermuda</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="str">
+      <c r="A26" s="41" t="str">
         <f>_JQ5qF3mRCMe</f>
         <v>Bhutan</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="str">
+      <c r="A27" s="41" t="str">
         <f>_cpmmPDsQ3uG</f>
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="str">
+      <c r="A28" s="41" t="str">
         <f>_wyKC2eWRH3y</f>
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="str">
+      <c r="A29" s="41" t="str">
         <f>_n8iofJiiX4T</f>
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="str">
+      <c r="A30" s="41" t="str">
         <f>_c82mDnhUQly</f>
         <v>Botswana</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="str">
+      <c r="A31" s="41" t="str">
         <f>_sg5v6c9tCZ3</f>
         <v>Bouvet Island</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="str">
+      <c r="A32" s="41" t="str">
         <f>_dpcvWc01CeN</f>
         <v>Brazil</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="str">
+      <c r="A33" s="41" t="str">
         <f>_PFAtPR87fHs</f>
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="str">
+      <c r="A34" s="41" t="str">
         <f>_u7H4MyT2Y0A</f>
         <v>British Virgin Islands</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="str">
+      <c r="A35" s="41" t="str">
         <f>_MJEntShoQVK</f>
         <v>Brunei Darussalam</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="str">
+      <c r="A36" s="41" t="str">
         <f>_AjeCGGb8H76</f>
         <v>Bulgaria</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="str">
+      <c r="A37" s="41" t="str">
         <f>_hmZE3mVAZFf</f>
         <v>Burkina Faso</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="str">
+      <c r="A38" s="41" t="str">
         <f>_Xz7rnovuiOx</f>
         <v>Burundi</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="str">
+      <c r="A39" s="41" t="str">
         <f>_bGWaeVBrOcc</f>
         <v>Cabo Verde</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="str">
+      <c r="A40" s="41" t="str">
         <f>_dscgTvwyCw8</f>
         <v>Cambodia</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="str">
+      <c r="A41" s="41" t="str">
         <f>_VPesUmegQpP</f>
         <v>Cameroon</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="str">
+      <c r="A42" s="41" t="str">
         <f>_AJBfDthkySs</f>
         <v>Canada</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="str">
+      <c r="A43" s="41" t="str">
         <f>_u3GOCB1Hu01</f>
         <v>Cayman Islands</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="str">
+      <c r="A44" s="41" t="str">
         <f>_ZcrjvJaYQb7</f>
         <v>Central African Republic</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="str">
+      <c r="A45" s="41" t="str">
         <f>_tV0rWhHr9cj</f>
         <v>Chad</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="str">
+      <c r="A46" s="41" t="str">
         <f>_zFInPJBZVbN</f>
         <v>Chile</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="str">
+      <c r="A47" s="41" t="str">
         <f>_q23bFLr2E5D</f>
         <v>China</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="str">
+      <c r="A48" s="41" t="str">
         <f>_myv7amOYTHn</f>
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="str">
+      <c r="A49" s="41" t="str">
         <f>_y582ESg0Vjo</f>
         <v>China, Macao SAR</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="str">
+      <c r="A50" s="41" t="str">
         <f>_lGN2n7pZ6Ua</f>
         <v>China, Province of Taiwan</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="str">
+      <c r="A51" s="41" t="str">
         <f>_a0Tb0vzKk1m</f>
         <v>China: Province of Taiwan only</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="str">
+      <c r="A52" s="41" t="str">
         <f>_XjHXb0aFH5w</f>
         <v>Christmas Island</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="str">
+      <c r="A53" s="41" t="str">
         <f>_AFIorEPU00q</f>
         <v>Cocos (Keeling) Islands</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="str">
+      <c r="A54" s="41" t="str">
         <f>_jXQq22U4Y2e</f>
         <v>Colombia</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="str">
+      <c r="A55" s="41" t="str">
         <f>_RTdjvXHJdnH</f>
         <v>Comoros</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="str">
+      <c r="A56" s="41" t="str">
         <f>_shRXArPWh8H</f>
         <v>Congo</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="str">
+      <c r="A57" s="41" t="str">
         <f>_TldYkeCwb5r</f>
         <v>Cook Islands</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="str">
+      <c r="A58" s="41" t="str">
         <f>_pbH6bmcioGw</f>
         <v>Costa Rica</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="str">
+      <c r="A59" s="41" t="str">
         <f>_lbMrRSBsXh3</f>
         <v>Croatia</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="str">
+      <c r="A60" s="41" t="str">
         <f>_Zdl3ad7PayF</f>
         <v>Cuba</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="str">
+      <c r="A61" s="41" t="str">
         <f>_QSpLidCdqMU</f>
         <v>Curaçao</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="str">
+      <c r="A62" s="41" t="str">
         <f>_Mb9IYOFZYCv</f>
         <v>Cyprus</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="str">
+      <c r="A63" s="41" t="str">
         <f>_XKKI1hhyFxk</f>
         <v>Czechia</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="str">
+      <c r="A64" s="41" t="str">
         <f>_NhuW760cOQG</f>
         <v>Czechoslovakia, Former</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="str">
+      <c r="A65" s="41" t="str">
         <f>_WXGcnQWJ0Qd</f>
         <v>Côte d'Ivoire</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="str">
+      <c r="A66" s="41" t="str">
         <f>_OFXJXWnOG0R</f>
         <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59" t="str">
+      <c r="A67" s="41" t="str">
         <f>_EDHO4qOyY88</f>
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="str">
+      <c r="A68" s="41" t="str">
         <f>_CCl7hAqlrmE</f>
         <v>Denmark</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="str">
+      <c r="A69" s="41" t="str">
         <f>_Yg9QkNQk9p7</f>
         <v>Djibouti</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="str">
+      <c r="A70" s="41" t="str">
         <f>_s1mzBU7YOaZ</f>
         <v>Dominica</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="str">
+      <c r="A71" s="41" t="str">
         <f>_PpjdOoVUc7k</f>
         <v>Dominican Republic</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="str">
+      <c r="A72" s="41" t="str">
         <f>_LAPR4Iu2NVS</f>
         <v>Ecuador</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="str">
+      <c r="A73" s="41" t="str">
         <f>_JIr15Xt3EQn</f>
         <v>Egypt</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="str">
+      <c r="A74" s="41" t="str">
         <f>_Mk7P920hkBa</f>
         <v>El Salvador</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="str">
+      <c r="A75" s="41" t="str">
         <f>_Fi5lLVwe1Th</f>
         <v>Equatorial Guinea</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="str">
+      <c r="A76" s="41" t="str">
         <f>_vnbnnSZXGTv</f>
         <v>Eritrea</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="str">
+      <c r="A77" s="41" t="str">
         <f>_XeWqwCw9G5s</f>
         <v>Estonia</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59" t="str">
+      <c r="A78" s="41" t="str">
         <f>_G3thRWUQAX9</f>
         <v>Eswatini</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="str">
+      <c r="A79" s="41" t="str">
         <f>_zEYrsiNUGIo</f>
         <v>Ethiopia</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="str">
+      <c r="A80" s="41" t="str">
         <f>_PRrdILmQQb3</f>
         <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="str">
+      <c r="A81" s="41" t="str">
         <f>_ngUSWwX0Oby</f>
         <v>Faroe Islands</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="str">
+      <c r="A82" s="41" t="str">
         <f>_sSIYRwB1r74</f>
         <v>Fiji</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="str">
+      <c r="A83" s="41" t="str">
         <f>_bnQX2QIuIY9</f>
         <v>Finland</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="str">
+      <c r="A84" s="41" t="str">
         <f>_VnTycSnraEY</f>
         <v>France</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="str">
+      <c r="A85" s="41" t="str">
         <f>_UJVEh0g7qOo</f>
         <v>French Guiana</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="str">
+      <c r="A86" s="41" t="str">
         <f>_QLERXr2o7IE</f>
         <v>French Polynesia</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="str">
+      <c r="A87" s="41" t="str">
         <f>_BLpPqpMtgQY</f>
         <v>French Southern Territories</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="str">
+      <c r="A88" s="41" t="str">
         <f>_EGLpIMSAWhx</f>
         <v>Gabon</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="str">
+      <c r="A89" s="41" t="str">
         <f>_z51rgcc5R8V</f>
         <v>Gambia</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="str">
+      <c r="A90" s="41" t="str">
         <f>_fg8TSIHSGHX</f>
         <v>Georgia</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="str">
+      <c r="A91" s="41" t="str">
         <f>_Ri2tb7LBVtP</f>
         <v>Germany</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="str">
+      <c r="A92" s="41" t="str">
         <f>_hgGOTFYZxMO</f>
         <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59" t="str">
+      <c r="A93" s="41" t="str">
         <f>_E9G2aQpCs1A</f>
         <v>Germany, Former Federal Republic</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="str">
+      <c r="A94" s="41" t="str">
         <f>_Fq9qs6Kn6wN</f>
         <v>Germany, West Berlin</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="str">
+      <c r="A95" s="41" t="str">
         <f>_WC5rU5fLMzY</f>
         <v>Ghana</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="str">
+      <c r="A96" s="41" t="str">
         <f>_BVzmce6DVeS</f>
         <v>Gibraltar</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="str">
+      <c r="A97" s="41" t="str">
         <f>_eyvitcZL4ex</f>
         <v>Greece</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="str">
+      <c r="A98" s="41" t="str">
         <f>_IZy3ESdFnp5</f>
         <v>Greenland</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="str">
+      <c r="A99" s="41" t="str">
         <f>_gg9DH7dvdeD</f>
         <v>Grenada</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="str">
+      <c r="A100" s="41" t="str">
         <f>_cRWrIpjzvVl</f>
         <v>Guadeloupe</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="str">
+      <c r="A101" s="41" t="str">
         <f>_q9u7nkNkuGy</f>
         <v>Guam</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="str">
+      <c r="A102" s="41" t="str">
         <f>_bhkJDAiqVKX</f>
         <v>Guatemala</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="str">
+      <c r="A103" s="41" t="str">
         <f>_NUkOvK4bnj2</f>
         <v>Guernsey</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59" t="str">
+      <c r="A104" s="41" t="str">
         <f>_quQpOfBIDFC</f>
         <v>Guinea</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="str">
+      <c r="A105" s="41" t="str">
         <f>_G9o5ad4oJJX</f>
         <v>Guinea-Bissau</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="str">
+      <c r="A106" s="41" t="str">
         <f>_AUStREIxT4s</f>
         <v>Guyana</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="str">
+      <c r="A107" s="41" t="str">
         <f>_ipe4pT2TW7G</f>
         <v>Haiti</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="str">
+      <c r="A108" s="41" t="str">
         <f>_apVWLKfARpb</f>
         <v>Heard Island and McDonald Islands</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="str">
+      <c r="A109" s="41" t="str">
         <f>_jZOt27rWre8</f>
         <v>Holy See</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="59" t="str">
+      <c r="A110" s="41" t="str">
         <f>_mDSuyD9lOM5</f>
         <v>Honduras</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="59" t="str">
+      <c r="A111" s="41" t="str">
         <f>_g49fuSiB623</f>
         <v>Hungary</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="59" t="str">
+      <c r="A112" s="41" t="str">
         <f>_Bc3mYAhlY1a</f>
         <v>Iceland</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="str">
+      <c r="A113" s="41" t="str">
         <f>_WApLDd37Yj2</f>
         <v>India</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="str">
+      <c r="A114" s="41" t="str">
         <f>_jVqoXv7rFns</f>
         <v>Indonesia</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59" t="str">
+      <c r="A115" s="41" t="str">
         <f>_SsAjVE1S87E</f>
         <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="59" t="str">
+      <c r="A116" s="41" t="str">
         <f>_fHXW26zg2U6</f>
         <v>Iraq</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="59" t="str">
+      <c r="A117" s="41" t="str">
         <f>_uvTw0Kus5KZ</f>
         <v>Ireland</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="str">
+      <c r="A118" s="41" t="str">
         <f>_ehNfKt5LpG9</f>
         <v>Isle of Man</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="59" t="str">
+      <c r="A119" s="41" t="str">
         <f>_XebDUbuPqVx</f>
         <v>Israel</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="str">
+      <c r="A120" s="41" t="str">
         <f>_ElwEWppmGgv</f>
         <v>Italy</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="59" t="str">
+      <c r="A121" s="41" t="str">
         <f>_x6DVvicRjYC</f>
         <v>Jamaica</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="59" t="str">
+      <c r="A122" s="41" t="str">
         <f>_JI5lagoUJR4</f>
         <v>Japan</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59" t="str">
+      <c r="A123" s="41" t="str">
         <f>_XJscL6IuHpd</f>
         <v>Jersey</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="59" t="str">
+      <c r="A124" s="41" t="str">
         <f>_GWQBgBHdbbp</f>
         <v>Jordan</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="59" t="str">
+      <c r="A125" s="41" t="str">
         <f>_ibGsqmiVkoU</f>
         <v>Kazakhstan</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="59" t="str">
+      <c r="A126" s="41" t="str">
         <f>_HfVjCurKxh2</f>
         <v>Kenya</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="str">
+      <c r="A127" s="41" t="str">
         <f>_Nlv8oKkoAwp</f>
         <v>Kiribati</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="59" t="str">
+      <c r="A128" s="41" t="str">
         <f>_tnTRnfd2aVs</f>
         <v>Kuwait</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="59" t="str">
+      <c r="A129" s="41" t="str">
         <f>_tDFavWinSwr</f>
         <v>Kyrgyzstan</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="59" t="str">
+      <c r="A130" s="41" t="str">
         <f>_bvyjEfI0d2V</f>
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="59" t="str">
+      <c r="A131" s="41" t="str">
         <f>_gxi9jcBYyrL</f>
         <v>Latvia</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="59" t="str">
+      <c r="A132" s="41" t="str">
         <f>_ACalScnrl2I</f>
         <v>Lebanon</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="59" t="str">
+      <c r="A133" s="41" t="str">
         <f>_D4JnxOsqwE4</f>
         <v>Lesotho</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="59" t="str">
+      <c r="A134" s="41" t="str">
         <f>_JEHwU064LAj</f>
         <v>Liberia</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="59" t="str">
+      <c r="A135" s="41" t="str">
         <f>_zaluKz5Llai</f>
         <v>Libya</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="59" t="str">
+      <c r="A136" s="41" t="str">
         <f>_gMz0MxjZcEt</f>
         <v>Liechtenstein</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="59" t="str">
+      <c r="A137" s="41" t="str">
         <f>_T1irZBQ9gNW</f>
         <v>Lithuania</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="59" t="str">
+      <c r="A138" s="41" t="str">
         <f>_mmJUi0PpvGi</f>
         <v>Luxembourg</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="59" t="str">
+      <c r="A139" s="41" t="str">
         <f>_bcy4159FETR</f>
         <v>Madagascar</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="59" t="str">
+      <c r="A140" s="41" t="str">
         <f>_G037PAPU5dO</f>
         <v>Malawi</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="59" t="str">
+      <c r="A141" s="41" t="str">
         <f>_BmTVMvJHVBO</f>
         <v>Malaysia</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="59" t="str">
+      <c r="A142" s="41" t="str">
         <f>_FOJUXD6f6lB</f>
         <v>Maldives</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="59" t="str">
+      <c r="A143" s="41" t="str">
         <f>_EubjsxqlA4d</f>
         <v>Mali</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="59" t="str">
+      <c r="A144" s="41" t="str">
         <f>_TIhakAVsQwM</f>
         <v>Malta</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="59" t="str">
+      <c r="A145" s="41" t="str">
         <f>_Ajnw1b8m6eL</f>
         <v>Marshall Islands</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59" t="str">
+      <c r="A146" s="41" t="str">
         <f>_v2B5AtYQV8H</f>
         <v>Martinique</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="59" t="str">
+      <c r="A147" s="41" t="str">
         <f>_XYpsN5j30R9</f>
         <v>Mauritania</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="59" t="str">
+      <c r="A148" s="41" t="str">
         <f>_EB4aSZN0eQr</f>
         <v>Mauritius</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="59" t="str">
+      <c r="A149" s="41" t="str">
         <f>_Bon3xyAAWKf</f>
         <v>Mayotte</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="59" t="str">
+      <c r="A150" s="41" t="str">
         <f>_KAUSOoBq5Ft</f>
         <v>Mexico</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="59" t="str">
+      <c r="A151" s="41" t="str">
         <f>_lnvESj20mWZ</f>
         <v>Micronesia (Federated States of)</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="59" t="str">
+      <c r="A152" s="41" t="str">
         <f>_cZ8823L0fLJ</f>
         <v>Monaco</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="59" t="str">
+      <c r="A153" s="41" t="str">
         <f>_IZSm5iPKkDg</f>
         <v>Mongolia</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="59" t="str">
+      <c r="A154" s="41" t="str">
         <f>_JX7HJfPfbog</f>
         <v>Montenegro</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="59" t="str">
+      <c r="A155" s="41" t="str">
         <f>_B4iWc3gcDcn</f>
         <v>Montserrat</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="59" t="str">
+      <c r="A156" s="41" t="str">
         <f>_WuQvgvXKamv</f>
         <v>Morocco</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="59" t="str">
+      <c r="A157" s="41" t="str">
         <f>_Gan3VYicAWe</f>
         <v>Mozambique</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="59" t="str">
+      <c r="A158" s="41" t="str">
         <f>_YOL13ptz4ef</f>
         <v>Myanmar</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="59" t="str">
+      <c r="A159" s="41" t="str">
         <f>_rtLnlu4GUI2</f>
         <v>Namibia</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="59" t="str">
+      <c r="A160" s="41" t="str">
         <f>_Pz0LCggcqES</f>
         <v>Nauru</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="59" t="str">
+      <c r="A161" s="41" t="str">
         <f>_pZZriU4sY0l</f>
         <v>Nepal</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="59" t="str">
+      <c r="A162" s="41" t="str">
         <f>_rEQqufy2KNi</f>
         <v>Netherlands</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="59" t="str">
+      <c r="A163" s="41" t="str">
         <f>_COs48yLdDvg</f>
         <v>Netherlands Antilles</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="59" t="str">
+      <c r="A164" s="41" t="str">
         <f>_jMGr96nGwHN</f>
         <v>New Caledonia</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="59" t="str">
+      <c r="A165" s="41" t="str">
         <f>_hG1CNbw8wSF</f>
         <v>New Zealand</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="59" t="str">
+      <c r="A166" s="41" t="str">
         <f>_wnuoeS9sVZR</f>
         <v>Nicaragua</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="59" t="str">
+      <c r="A167" s="41" t="str">
         <f>_O0hWoXlHhIS</f>
         <v>Niger</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="59" t="str">
+      <c r="A168" s="41" t="str">
         <f>_I3NxIqG7bD4</f>
         <v>Nigeria</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="59" t="str">
+      <c r="A169" s="41" t="str">
         <f>_KqaTbKanCG3</f>
         <v>Niue</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="59" t="str">
+      <c r="A170" s="41" t="str">
         <f>_O7BGyJhV2Tc</f>
         <v>Norfolk Island</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="59" t="str">
+      <c r="A171" s="41" t="str">
         <f>_cfBaKMnsXd1</f>
         <v>North Macedonia</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="59" t="str">
+      <c r="A172" s="41" t="str">
         <f>_vPoFz9J1v6Y</f>
         <v>Northern Mariana Islands</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="59" t="str">
+      <c r="A173" s="41" t="str">
         <f>_oy494aJtjTB</f>
         <v>Norway</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="59" t="str">
+      <c r="A174" s="41" t="str">
         <f>_G8FCnT37gyb</f>
         <v>Oman</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="59" t="str">
+      <c r="A175" s="41" t="str">
         <f>_yzAMOdV0Pmr</f>
         <v>Pakistan</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="59" t="str">
+      <c r="A176" s="41" t="str">
         <f>_iFaKKDtb7nf</f>
         <v>Palau</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="59" t="str">
+      <c r="A177" s="41" t="str">
         <f>_wUBWZEHJm6Q</f>
         <v>Panama</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="59" t="str">
+      <c r="A178" s="41" t="str">
         <f>_Zav7juzGmEo</f>
         <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="59" t="str">
+      <c r="A179" s="41" t="str">
         <f>_Wpzccx0vjIP</f>
         <v>Paraguay</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="59" t="str">
+      <c r="A180" s="41" t="str">
         <f>_vkXlj7ZPkGi</f>
         <v>Peru</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="59" t="str">
+      <c r="A181" s="41" t="str">
         <f>_QkOClVdLto1</f>
         <v>Philippines</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="59" t="str">
+      <c r="A182" s="41" t="str">
         <f>_fHaKXfcKthe</f>
         <v>Pitcairn</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="59" t="str">
+      <c r="A183" s="41" t="str">
         <f>_wMTP4GblKr8</f>
         <v>Poland</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="59" t="str">
+      <c r="A184" s="41" t="str">
         <f>_PevCwH17M73</f>
         <v>Portugal</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="59" t="str">
+      <c r="A185" s="41" t="str">
         <f>_w3IJVQhc8Rm</f>
         <v>Puerto Rico</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="59" t="str">
+      <c r="A186" s="41" t="str">
         <f>_jCtFxm8aADJ</f>
         <v>Qatar</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="59" t="str">
+      <c r="A187" s="41" t="str">
         <f>_IbGbsybdeou</f>
         <v>Republic of Korea</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="59" t="str">
+      <c r="A188" s="41" t="str">
         <f>_yBqy4nxuOCA</f>
         <v>Republic of Moldova</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="59" t="str">
+      <c r="A189" s="41" t="str">
         <f>_ZRxKEGQmkWI</f>
         <v>Rodrigues</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="59" t="str">
+      <c r="A190" s="41" t="str">
         <f>_N9i1v07Ro0E</f>
         <v>Romania</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="59" t="str">
+      <c r="A191" s="41" t="str">
         <f>_i3v8r9XNls2</f>
         <v>Russian Federation</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="59" t="str">
+      <c r="A192" s="41" t="str">
         <f>_UlQiEogy3wG</f>
         <v>Rwanda</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="59" t="str">
+      <c r="A193" s="41" t="str">
         <f>_LTLHCOHyyWS</f>
         <v>Ryu Kyu Islands</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="59" t="str">
+      <c r="A194" s="41" t="str">
         <f>_VwqhqUCaMgk</f>
         <v>Réunion</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="59" t="str">
+      <c r="A195" s="41" t="str">
         <f>_GPyOOoIby8R</f>
         <v>Saint Barthélemy</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="59" t="str">
+      <c r="A196" s="41" t="str">
         <f>_aZ7Bm5L90rn</f>
         <v>Saint Helena</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="59" t="str">
+      <c r="A197" s="41" t="str">
         <f>_BlC8wOVHBlb</f>
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="59" t="str">
+      <c r="A198" s="41" t="str">
         <f>_RyAd6laKg3U</f>
         <v>Saint Lucia</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="59" t="str">
+      <c r="A199" s="41" t="str">
         <f>_tSBEjAHKj9V</f>
         <v>Saint Martin (French part)</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="59" t="str">
+      <c r="A200" s="41" t="str">
         <f>_HYEuE8zV74t</f>
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="59" t="str">
+      <c r="A201" s="41" t="str">
         <f>_ZgsdoEiTlLq</f>
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="59" t="str">
+      <c r="A202" s="41" t="str">
         <f>_hpXoMVtJpT3</f>
         <v>Samoa</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="59" t="str">
+      <c r="A203" s="41" t="str">
         <f>_SAsS1Kwc4iW</f>
         <v>San Marino</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="59" t="str">
+      <c r="A204" s="41" t="str">
         <f>_FNduj2N3e8s</f>
         <v>Sao Tome and Principe</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="59" t="str">
+      <c r="A205" s="41" t="str">
         <f>_xB6nQN5Wtpg</f>
         <v>Saudi Arabia</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="59" t="str">
+      <c r="A206" s="41" t="str">
         <f>_wj7iV08dvFq</f>
         <v>Senegal</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="59" t="str">
+      <c r="A207" s="41" t="str">
         <f>_oroMC4mMzMq</f>
         <v>Serbia</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="59" t="str">
+      <c r="A208" s="41" t="str">
         <f>_HizhPCC5Ps5</f>
         <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="59" t="str">
+      <c r="A209" s="41" t="str">
         <f>_wimH12ukPK5</f>
         <v>Seychelles</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="59" t="str">
+      <c r="A210" s="41" t="str">
         <f>_qbqrFLCJewu</f>
         <v>Sierra Leone</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="59" t="str">
+      <c r="A211" s="41" t="str">
         <f>_rb6V38jgfFc</f>
         <v>Singapore</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="59" t="str">
+      <c r="A212" s="41" t="str">
         <f>_cCgL3J7Lsgn</f>
         <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="59" t="str">
+      <c r="A213" s="41" t="str">
         <f>_RDiXMdNXg16</f>
         <v>Slovakia</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="59" t="str">
+      <c r="A214" s="41" t="str">
         <f>_PY4aKgi30fr</f>
         <v>Slovenia</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="59" t="str">
+      <c r="A215" s="41" t="str">
         <f>_FUieyovDec8</f>
         <v>Solomon Islands</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="59" t="str">
+      <c r="A216" s="41" t="str">
         <f>_oWNF4d3PK8C</f>
         <v>Somalia</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="59" t="str">
+      <c r="A217" s="41" t="str">
         <f>_lVPoUAKCdmU</f>
         <v>South Africa</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="59" t="str">
+      <c r="A218" s="41" t="str">
         <f>_z5ouOuycTPO</f>
         <v>South Georgia and the South Sandwich Islands</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="59" t="str">
+      <c r="A219" s="41" t="str">
         <f>_mhWSEv79IJW</f>
         <v>South Sudan</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="59" t="str">
+      <c r="A220" s="41" t="str">
         <f>_DVnpk4xiXGJ</f>
         <v>Spain</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="59" t="str">
+      <c r="A221" s="41" t="str">
         <f>_er7MPiN3tdH</f>
         <v>Sri Lanka</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="59" t="str">
+      <c r="A222" s="41" t="str">
         <f>_QqAzWHtJ8VC</f>
         <v>Sudan</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="59" t="str">
+      <c r="A223" s="41" t="str">
         <f>_IjLnDADGraQ</f>
         <v>Sudan (former)</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="59" t="str">
+      <c r="A224" s="41" t="str">
         <f>_jkyBvNzcTLl</f>
         <v>Suriname</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="59" t="str">
+      <c r="A225" s="41" t="str">
         <f>_TWyMjVaaxmT</f>
         <v>Svalbard and Jan Mayen</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="59" t="str">
+      <c r="A226" s="41" t="str">
         <f>_IFAb1JUZ0Fz</f>
         <v>Sweden</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="59" t="str">
+      <c r="A227" s="41" t="str">
         <f>_q2HqXV5OO3z</f>
         <v>Switzerland</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="59" t="str">
+      <c r="A228" s="41" t="str">
         <f>_HDN85xUGB65</f>
         <v>Syrian Arab Republic</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="59" t="str">
+      <c r="A229" s="41" t="str">
         <f>_xb2ezJcUoSR</f>
         <v>Tajikistan</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="59" t="str">
+      <c r="A230" s="41" t="str">
         <f>_vboedbUs1As</f>
         <v>Thailand</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="59" t="str">
+      <c r="A231" s="41" t="str">
         <f>_pGLy2Zj2lVg</f>
         <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="59" t="str">
+      <c r="A232" s="41" t="str">
         <f>_cJU4qStc9QT</f>
         <v>Timor-Leste</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="59" t="str">
+      <c r="A233" s="41" t="str">
         <f>_WtcZBCTspgM</f>
         <v>Togo</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="59" t="str">
+      <c r="A234" s="41" t="str">
         <f>_VMqDEughMuP</f>
         <v>Tokelau</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="59" t="str">
+      <c r="A235" s="41" t="str">
         <f>_zYQqFxQw5jj</f>
         <v>Tonga</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="59" t="str">
+      <c r="A236" s="41" t="str">
         <f>_fYeClLy8K2x</f>
         <v>Trinidad and Tobago</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="59" t="str">
+      <c r="A237" s="41" t="str">
         <f>_pMukkUmnnkh</f>
         <v>Tunisia</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="59" t="str">
+      <c r="A238" s="41" t="str">
         <f>_eVEK7djdWqV</f>
         <v>Turkey</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="59" t="str">
+      <c r="A239" s="41" t="str">
         <f>_HwqfuL9pQz5</f>
         <v>Turkmenistan</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="59" t="str">
+      <c r="A240" s="41" t="str">
         <f>_vg4b11FL2Gl</f>
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="59" t="str">
+      <c r="A241" s="41" t="str">
         <f>_GrU8zQv510v</f>
         <v>Tuvalu</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="59" t="str">
+      <c r="A242" s="41" t="str">
         <f>_M9HrCkIwaKy</f>
         <v>US Virgin Islands</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="59" t="str">
+      <c r="A243" s="41" t="str">
         <f>_wFkq5oB0dFS</f>
         <v>USSR, Former</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="59" t="str">
+      <c r="A244" s="41" t="str">
         <f>_SnYHrnchKjL</f>
         <v>Uganda</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="59" t="str">
+      <c r="A245" s="41" t="str">
         <f>_VJrTuNXAg9G</f>
         <v>Ukraine</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="59" t="str">
+      <c r="A246" s="41" t="str">
         <f>_aNIrqpwcKXv</f>
         <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="59" t="str">
+      <c r="A247" s="41" t="str">
         <f>_Gnz4lqrVEMf</f>
         <v>United Kingdom of Great Britain and Northern Irela</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="59" t="str">
+      <c r="A248" s="41" t="str">
         <f>_TpDwlm2Spev</f>
         <v>United Kingdom, England and Wales</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="59" t="str">
+      <c r="A249" s="41" t="str">
         <f>_Q8De2VxoKXS</f>
         <v>United Kingdom, Northern Ireland</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="59" t="str">
+      <c r="A250" s="41" t="str">
         <f>_Gvox4WmLiYC</f>
         <v>United Kingdom, Scotland</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="59" t="str">
+      <c r="A251" s="41" t="str">
         <f>_S52uSY3lb8V</f>
         <v>United Republic of Tanzania</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="59" t="str">
+      <c r="A252" s="41" t="str">
         <f>_KOUhvjWIy6V</f>
         <v>United States Minor Outlying Islands</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="59" t="str">
+      <c r="A253" s="41" t="str">
         <f>_AYWCbVecRKQ</f>
         <v>United States of America</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="59" t="str">
+      <c r="A254" s="41" t="str">
         <f>_PJS910L8KtX</f>
         <v>Uruguay</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="59" t="str">
+      <c r="A255" s="41" t="str">
         <f>_kpFgAwwSjCZ</f>
         <v>Uzbekistan</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="59" t="str">
+      <c r="A256" s="41" t="str">
         <f>_xqjIL1cGrl1</f>
         <v>Vanuatu</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="59" t="str">
+      <c r="A257" s="41" t="str">
         <f>_fkrzFaeuYDn</f>
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="59" t="str">
+      <c r="A258" s="41" t="str">
         <f>_av3fkpFxEXj</f>
         <v>Viet Nam</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="59" t="str">
+      <c r="A259" s="41" t="str">
         <f>_eVp1pvRfPKS</f>
         <v>Wallis and Futuna</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="59" t="str">
+      <c r="A260" s="41" t="str">
         <f>_KrU8C1YTdao</f>
         <v>West Bank</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="59" t="str">
+      <c r="A261" s="41" t="str">
         <f>_juBxu3AprlM</f>
         <v>West Bank and Gaza Strip</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="59" t="str">
+      <c r="A262" s="41" t="str">
         <f>_PvrMV4NjbtR</f>
         <v>Western Sahara</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="59" t="str">
+      <c r="A263" s="41" t="str">
         <f>_HX7fBSMCCbL</f>
         <v>Yemen</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="59" t="str">
+      <c r="A264" s="41" t="str">
         <f>_fIlPGTXBCUm</f>
         <v>Yugoslavia, Former</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="59" t="str">
+      <c r="A265" s="41" t="str">
         <f>_gb7vWtO7Wjp</f>
         <v>Zambia</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="59" t="str">
+      <c r="A266" s="41" t="str">
         <f>_buSEeeViTo3</f>
         <v>Zimbabwe</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="59" t="str">
+      <c r="A267" s="41" t="str">
         <f>_Adzexk8xbzD</f>
         <v>Åland Islands</v>
       </c>
@@ -13645,3873 +13642,3873 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.28515625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="80" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="59"/>
+    <col min="1" max="2" width="34.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="80" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>1015</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>1014</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>1013</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="41" t="s">
         <v>1010</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="41" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="41" t="s">
         <v>1008</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="41" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="41" t="s">
         <v>1007</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="41" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="41" t="s">
         <v>1005</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="41" t="s">
         <v>1004</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="41" t="s">
         <v>1003</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="41" t="s">
         <v>1002</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="41" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="41" t="s">
         <v>999</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="41" t="s">
         <v>998</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="41" t="s">
         <v>997</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="41" t="s">
         <v>996</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="41" t="s">
         <v>995</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="41" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="41" t="s">
         <v>993</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="41" t="s">
         <v>992</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="41" t="s">
         <v>990</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="41" t="s">
         <v>989</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="41" t="s">
         <v>988</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="41" t="s">
         <v>987</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="41" t="s">
         <v>986</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="41" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="41" t="s">
         <v>984</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="41" t="s">
         <v>983</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="41" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="41" t="s">
         <v>981</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="41" t="s">
         <v>979</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="41" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="41" t="s">
         <v>977</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="41" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="41" t="s">
         <v>976</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="41" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="41" t="s">
         <v>975</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="41" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="41" t="s">
         <v>974</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="41" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="41" t="s">
         <v>973</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="41" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="41" t="s">
         <v>972</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="41" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="41" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="41" t="s">
         <v>969</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="41" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="41" t="s">
         <v>968</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="41" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="41" t="s">
         <v>966</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="41" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="41" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="41" t="s">
         <v>962</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="41" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="41" t="s">
         <v>960</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="41" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="41" t="s">
         <v>958</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="41" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="41" t="s">
         <v>956</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="41" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="41" t="s">
         <v>953</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="41" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="41" t="s">
         <v>950</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="41" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="41" t="s">
         <v>948</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="41" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="41" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="41" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="41" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="41" t="s">
         <v>940</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="41" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="41" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="41" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="41" t="s">
         <v>935</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="41" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="41" t="s">
         <v>933</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="41" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="41" t="s">
         <v>931</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="41" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="41" t="s">
         <v>929</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="41" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="41" t="s">
         <v>927</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="41" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="41" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="41" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="41" t="s">
         <v>921</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="41" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="41" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="41" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="41" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="41" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="41" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="41" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="41" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="41" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="41" t="s">
         <v>905</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="41" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="41" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="41" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="41" t="s">
         <v>898</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="41" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="41" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="41" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="41" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="41" t="s">
         <v>890</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="41" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="41" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="41" t="s">
         <v>886</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="41" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="41" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="41" t="s">
         <v>882</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="41" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="41" t="s">
         <v>880</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="41" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="41" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="41" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="41" t="s">
         <v>874</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="41" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
+      <c r="A73" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="41" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="41" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="41" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="41" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="41" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="59" t="s">
+      <c r="A78" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="41" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="41" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
+      <c r="A81" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="B81" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C81" s="59" t="s">
+      <c r="B81" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C81" s="41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
+      <c r="A82" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="B82" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C82" s="59" t="s">
+      <c r="B82" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C82" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C83" s="59" t="s">
+      <c r="B83" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C83" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B84" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C84" s="59" t="s">
+      <c r="B84" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C84" s="41" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="B85" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C85" s="59" t="s">
+      <c r="B85" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C85" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C86" s="59" t="s">
+      <c r="B86" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C86" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B87" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C87" s="59" t="s">
+      <c r="B87" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C87" s="41" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="B88" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C88" s="59" t="s">
+      <c r="B88" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C88" s="41" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="B89" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C89" s="59" t="s">
+      <c r="B89" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C89" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="s">
+      <c r="A90" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="B90" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C90" s="59" t="s">
+      <c r="B90" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C90" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="B91" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C91" s="59" t="s">
+      <c r="B91" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C91" s="41" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
+      <c r="A92" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="B92" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C92" s="59" t="s">
+      <c r="B92" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C92" s="41" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="B93" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C93" s="59" t="s">
+      <c r="B93" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C93" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="s">
+      <c r="A94" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="B94" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C94" s="59" t="s">
+      <c r="B94" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C94" s="41" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B95" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C95" s="59" t="s">
+      <c r="B95" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C95" s="41" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="B96" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C96" s="59" t="s">
+      <c r="B96" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C96" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="B97" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C97" s="59" t="s">
+      <c r="B97" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C97" s="41" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B98" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C98" s="59" t="s">
+      <c r="B98" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C98" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="B99" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C99" s="59" t="s">
+      <c r="B99" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C99" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="B100" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C100" s="59" t="s">
+      <c r="B100" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C100" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B101" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C101" s="59" t="s">
+      <c r="B101" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C101" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C102" s="59" t="s">
+      <c r="B102" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C102" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B103" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C103" s="59" t="s">
+      <c r="B103" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C103" s="41" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="B104" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C104" s="59" t="s">
+      <c r="B104" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C104" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C105" s="59" t="s">
+      <c r="B105" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C105" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="B106" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C106" s="59" t="s">
+      <c r="B106" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C106" s="41" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="B107" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C107" s="59" t="s">
+      <c r="B107" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C107" s="41" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="B108" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C108" s="59" t="s">
+      <c r="B108" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C108" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
+      <c r="A109" s="41" t="s">
         <v>780</v>
       </c>
-      <c r="B109" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C109" s="59" t="s">
+      <c r="B109" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C109" s="41" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C110" s="59" t="s">
+      <c r="B110" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="41" t="s">
         <v>783</v>
       </c>
-      <c r="B111" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C111" s="59" t="s">
+      <c r="B111" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C111" s="41" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="B112" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C112" s="59" t="s">
+      <c r="B112" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C112" s="41" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
+      <c r="A113" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="B113" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C113" s="59" t="s">
+      <c r="B113" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C113" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="B114" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C114" s="59" t="s">
+      <c r="B114" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C114" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="59" t="s">
+      <c r="A115" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C115" s="59" t="s">
+      <c r="B115" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C115" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="59" t="s">
+      <c r="A116" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C116" s="59" t="s">
+      <c r="B116" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C116" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="59" t="s">
+      <c r="A117" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="B117" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C117" s="59" t="s">
+      <c r="B117" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C117" s="41" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="B118" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C118" s="59" t="s">
+      <c r="B118" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C118" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="59" t="s">
+      <c r="A119" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B119" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C119" s="59" t="s">
+      <c r="B119" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C119" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B120" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C120" s="59" t="s">
+      <c r="B120" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C120" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="B121" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C121" s="59" t="s">
+      <c r="B121" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C121" s="41" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="59" t="s">
+      <c r="A122" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B122" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C122" s="59" t="s">
+      <c r="B122" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C122" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="59" t="s">
+      <c r="A123" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="B123" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C123" s="59" t="s">
+      <c r="B123" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C123" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="B124" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C124" s="59" t="s">
+      <c r="B124" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C124" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="59" t="s">
+      <c r="A125" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="B125" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C125" s="59" t="s">
+      <c r="B125" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C125" s="41" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="59" t="s">
+      <c r="A126" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="B126" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C126" s="59" t="s">
+      <c r="B126" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C126" s="41" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="B127" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C127" s="59" t="s">
+      <c r="B127" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C127" s="41" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="59" t="s">
+      <c r="A128" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="B128" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C128" s="59" t="s">
+      <c r="B128" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C128" s="41" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="59" t="s">
+      <c r="A129" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="B129" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C129" s="59" t="s">
+      <c r="B129" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C129" s="41" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="B130" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C130" s="59" t="s">
+      <c r="B130" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C130" s="41" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="41" t="s">
         <v>794</v>
       </c>
-      <c r="B131" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C131" s="59" t="s">
+      <c r="B131" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C131" s="41" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B132" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C132" s="59" t="s">
+      <c r="B132" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C132" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="59" t="s">
+      <c r="A133" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B133" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C133" s="59" t="s">
+      <c r="B133" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C133" s="41" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="59" t="s">
+      <c r="A134" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B134" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C134" s="59" t="s">
+      <c r="B134" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C134" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="41" t="s">
         <v>701</v>
       </c>
-      <c r="B135" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C135" s="59" t="s">
+      <c r="B135" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C135" s="41" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B136" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C136" s="59" t="s">
+      <c r="B136" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C136" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="59" t="s">
+      <c r="A137" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="B137" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C137" s="59" t="s">
+      <c r="B137" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C137" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="59" t="s">
+      <c r="A138" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B138" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C138" s="59" t="s">
+      <c r="B138" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C138" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="59" t="s">
+      <c r="A139" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="B139" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C139" s="59" t="s">
+      <c r="B139" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C139" s="41" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="59" t="s">
+      <c r="A140" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="B140" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C140" s="59" t="s">
+      <c r="B140" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C140" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="59" t="s">
+      <c r="A141" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="B141" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C141" s="59" t="s">
+      <c r="B141" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C141" s="41" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="59" t="s">
+      <c r="A142" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="B142" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C142" s="59" t="s">
+      <c r="B142" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C142" s="41" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="59" t="s">
+      <c r="A143" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B143" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C143" s="59" t="s">
+      <c r="B143" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C143" s="41" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="59" t="s">
+      <c r="A144" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="B144" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C144" s="59" t="s">
+      <c r="B144" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C144" s="41" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="59" t="s">
+      <c r="A145" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="B145" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C145" s="59" t="s">
+      <c r="B145" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C145" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="B146" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C146" s="59" t="s">
+      <c r="B146" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C146" s="41" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="59" t="s">
+      <c r="A147" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="B147" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C147" s="59" t="s">
+      <c r="B147" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C147" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B148" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C148" s="59" t="s">
+      <c r="B148" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C148" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="59" t="s">
+      <c r="A149" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="B149" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C149" s="59" t="s">
+      <c r="B149" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C149" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="59" t="s">
+      <c r="A150" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="B150" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C150" s="59" t="s">
+      <c r="B150" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C150" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="59" t="s">
+      <c r="A151" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="B151" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C151" s="59" t="s">
+      <c r="B151" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C151" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="59" t="s">
+      <c r="A152" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B152" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C152" s="59" t="s">
+      <c r="B152" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C152" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="59" t="s">
+      <c r="A153" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B153" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C153" s="59" t="s">
+      <c r="B153" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C153" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="59" t="s">
+      <c r="A154" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B154" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C154" s="59" t="s">
+      <c r="B154" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C154" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="59" t="s">
+      <c r="A155" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="B155" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C155" s="59" t="s">
+      <c r="B155" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C155" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="59" t="s">
+      <c r="A156" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B156" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C156" s="59" t="s">
+      <c r="B156" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C156" s="41" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="59" t="s">
+      <c r="A157" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B157" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C157" s="59" t="s">
+      <c r="B157" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C157" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="59" t="s">
+      <c r="A158" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="B158" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C158" s="59" t="s">
+      <c r="B158" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C158" s="41" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="59" t="s">
+      <c r="A159" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="B159" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C159" s="59" t="s">
+      <c r="B159" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C159" s="41" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="B160" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C160" s="59" t="s">
+      <c r="B160" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C160" s="41" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="59" t="s">
+      <c r="A161" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="B161" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C161" s="59" t="s">
+      <c r="B161" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C161" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="B162" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C162" s="59" t="s">
+      <c r="B162" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C162" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="59" t="s">
+      <c r="A163" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="B163" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C163" s="59" t="s">
+      <c r="B163" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C163" s="41" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="59" t="s">
+      <c r="A164" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="B164" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C164" s="59" t="s">
+      <c r="B164" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C164" s="41" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="59" t="s">
+      <c r="A165" s="41" t="s">
         <v>801</v>
       </c>
-      <c r="B165" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C165" s="59" t="s">
+      <c r="B165" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C165" s="41" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="59" t="s">
+      <c r="A166" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="B166" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C166" s="59" t="s">
+      <c r="B166" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C166" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="59" t="s">
+      <c r="A167" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="B167" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C167" s="59" t="s">
+      <c r="B167" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C167" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="59" t="s">
+      <c r="A168" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="B168" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C168" s="59" t="s">
+      <c r="B168" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C168" s="41" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="59" t="s">
+      <c r="A169" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="B169" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C169" s="59" t="s">
+      <c r="B169" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C169" s="41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="B170" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C170" s="59" t="s">
+      <c r="B170" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C170" s="41" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="59" t="s">
+      <c r="A171" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="B171" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C171" s="59" t="s">
+      <c r="B171" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C171" s="41" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="59" t="s">
+      <c r="A172" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="B172" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C172" s="59" t="s">
+      <c r="B172" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C172" s="41" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="59" t="s">
+      <c r="A173" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B173" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C173" s="59" t="s">
+      <c r="B173" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C173" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="59" t="s">
+      <c r="A174" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="B174" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C174" s="59" t="s">
+      <c r="B174" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C174" s="41" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="59" t="s">
+      <c r="A175" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="B175" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C175" s="59" t="s">
+      <c r="B175" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C175" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="59" t="s">
+      <c r="A176" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="B176" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C176" s="59" t="s">
+      <c r="B176" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C176" s="41" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="B177" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C177" s="59" t="s">
+      <c r="B177" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C177" s="41" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="59" t="s">
+      <c r="A178" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="B178" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C178" s="59" t="s">
+      <c r="B178" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C178" s="41" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="59" t="s">
+      <c r="A179" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="B179" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C179" s="59" t="s">
+      <c r="B179" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C179" s="41" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="59" t="s">
+      <c r="A180" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="B180" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C180" s="59" t="s">
+      <c r="B180" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C180" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="59" t="s">
+      <c r="A181" s="41" t="s">
         <v>804</v>
       </c>
-      <c r="B181" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C181" s="59" t="s">
+      <c r="B181" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C181" s="41" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="B182" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C182" s="59" t="s">
+      <c r="B182" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C182" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="59" t="s">
+      <c r="A183" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B183" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C183" s="59" t="s">
+      <c r="B183" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C183" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="59" t="s">
+      <c r="A184" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="B184" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C184" s="59" t="s">
+      <c r="B184" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C184" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="59" t="s">
+      <c r="A185" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="B185" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C185" s="59" t="s">
+      <c r="B185" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C185" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="59" t="s">
+      <c r="A186" s="41" t="s">
         <v>807</v>
       </c>
-      <c r="B186" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C186" s="59" t="s">
+      <c r="B186" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C186" s="41" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="59" t="s">
+      <c r="A187" s="41" t="s">
         <v>810</v>
       </c>
-      <c r="B187" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C187" s="59" t="s">
+      <c r="B187" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C187" s="41" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="59" t="s">
+      <c r="A188" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="B188" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C188" s="59" t="s">
+      <c r="B188" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C188" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="59" t="s">
+      <c r="A189" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="B189" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C189" s="59" t="s">
+      <c r="B189" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C189" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="59" t="s">
+      <c r="A190" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="B190" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C190" s="59" t="s">
+      <c r="B190" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C190" s="41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="59" t="s">
+      <c r="A191" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="B191" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C191" s="59" t="s">
+      <c r="B191" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C191" s="41" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="59" t="s">
+      <c r="A192" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="B192" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C192" s="59" t="s">
+      <c r="B192" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C192" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="59" t="s">
+      <c r="A193" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="B193" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C193" s="59" t="s">
+      <c r="B193" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C193" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="59" t="s">
+      <c r="A194" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="B194" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C194" s="59" t="s">
+      <c r="B194" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C194" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="59" t="s">
+      <c r="A195" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="B195" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C195" s="59" t="s">
+      <c r="B195" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C195" s="41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="59" t="s">
+      <c r="A196" s="41" t="s">
         <v>813</v>
       </c>
-      <c r="B196" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C196" s="59" t="s">
+      <c r="B196" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C196" s="41" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="59" t="s">
+      <c r="A197" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="B197" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C197" s="59" t="s">
+      <c r="B197" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C197" s="41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="59" t="s">
+      <c r="A198" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="B198" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C198" s="59" t="s">
+      <c r="B198" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C198" s="41" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="59" t="s">
+      <c r="A199" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="B199" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C199" s="59" t="s">
+      <c r="B199" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C199" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="59" t="s">
+      <c r="A200" s="41" t="s">
         <v>705</v>
       </c>
-      <c r="B200" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C200" s="59" t="s">
+      <c r="B200" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C200" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="59" t="s">
+      <c r="A201" s="41" t="s">
         <v>816</v>
       </c>
-      <c r="B201" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C201" s="59" t="s">
+      <c r="B201" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C201" s="41" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="59" t="s">
+      <c r="A202" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="B202" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C202" s="59" t="s">
+      <c r="B202" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C202" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B203" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C203" s="59" t="s">
+      <c r="B203" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C203" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="59" t="s">
+      <c r="A204" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="B204" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C204" s="59" t="s">
+      <c r="B204" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C204" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="59" t="s">
+      <c r="A205" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="B205" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C205" s="59" t="s">
+      <c r="B205" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C205" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="59" t="s">
+      <c r="A206" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="B206" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C206" s="59" t="s">
+      <c r="B206" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C206" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="B207" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C207" s="59" t="s">
+      <c r="B207" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C207" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="B208" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C208" s="59" t="s">
+      <c r="B208" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C208" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="B209" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C209" s="59" t="s">
+      <c r="B209" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C209" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="B210" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C210" s="59" t="s">
+      <c r="B210" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C210" s="41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="59" t="s">
+      <c r="A211" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="B211" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C211" s="59" t="s">
+      <c r="B211" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C211" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="B212" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C212" s="59" t="s">
+      <c r="B212" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C212" s="41" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="59" t="s">
+      <c r="A213" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="B213" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C213" s="59" t="s">
+      <c r="B213" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C213" s="41" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="59" t="s">
+      <c r="A214" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="B214" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C214" s="59" t="s">
+      <c r="B214" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C214" s="41" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="59" t="s">
+      <c r="A215" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="B215" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C215" s="59" t="s">
+      <c r="B215" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C215" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="59" t="s">
+      <c r="A216" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B216" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C216" s="59" t="s">
+      <c r="B216" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C216" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="59" t="s">
+      <c r="A217" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B217" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C217" s="59" t="s">
+      <c r="B217" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C217" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="59" t="s">
+      <c r="A218" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="B218" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C218" s="59" t="s">
+      <c r="B218" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C218" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="59" t="s">
+      <c r="A219" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="B219" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C219" s="59" t="s">
+      <c r="B219" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C219" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="59" t="s">
+      <c r="A220" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="B220" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C220" s="59" t="s">
+      <c r="B220" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C220" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="59" t="s">
+      <c r="A221" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="B221" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C221" s="59" t="s">
+      <c r="B221" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C221" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="59" t="s">
+      <c r="A222" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B222" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C222" s="59" t="s">
+      <c r="B222" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C222" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="59" t="s">
+      <c r="A223" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="B223" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C223" s="59" t="s">
+      <c r="B223" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C223" s="41" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="59" t="s">
+      <c r="A224" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="B224" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C224" s="59" t="s">
+      <c r="B224" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C224" s="41" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="59" t="s">
+      <c r="A225" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B225" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C225" s="59" t="s">
+      <c r="B225" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C225" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="59" t="s">
+      <c r="A226" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B226" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C226" s="59" t="s">
+      <c r="B226" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C226" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="59" t="s">
+      <c r="A227" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="B227" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C227" s="59" t="s">
+      <c r="B227" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C227" s="41" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="59" t="s">
+      <c r="A228" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="B228" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C228" s="59" t="s">
+      <c r="B228" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C228" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="41" t="s">
         <v>715</v>
       </c>
-      <c r="B229" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C229" s="59" t="s">
+      <c r="B229" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C229" s="41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="59" t="s">
+      <c r="A230" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="B230" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C230" s="59" t="s">
+      <c r="B230" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C230" s="41" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="59" t="s">
+      <c r="A231" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="B231" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C231" s="59" t="s">
+      <c r="B231" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C231" s="41" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="59" t="s">
+      <c r="A232" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="B232" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C232" s="59" t="s">
+      <c r="B232" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C232" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="59" t="s">
+      <c r="A233" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="B233" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C233" s="59" t="s">
+      <c r="B233" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C233" s="41" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="59" t="s">
+      <c r="A234" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="B234" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C234" s="59" t="s">
+      <c r="B234" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C234" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="59" t="s">
+      <c r="A235" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="B235" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C235" s="59" t="s">
+      <c r="B235" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C235" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="59" t="s">
+      <c r="A236" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="B236" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C236" s="59" t="s">
+      <c r="B236" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C236" s="41" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="59" t="s">
+      <c r="A237" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="B237" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C237" s="59" t="s">
+      <c r="B237" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C237" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="59" t="s">
+      <c r="A238" s="41" t="s">
         <v>719</v>
       </c>
-      <c r="B238" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C238" s="59" t="s">
+      <c r="B238" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C238" s="41" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="59" t="s">
+      <c r="A239" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="B239" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C239" s="59" t="s">
+      <c r="B239" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C239" s="41" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="59" t="s">
+      <c r="A240" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="B240" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C240" s="59" t="s">
+      <c r="B240" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C240" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="59" t="s">
+      <c r="A241" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="B241" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C241" s="59" t="s">
+      <c r="B241" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C241" s="41" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="59" t="s">
+      <c r="A242" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="B242" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C242" s="59" t="s">
+      <c r="B242" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C242" s="41" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="59" t="s">
+      <c r="A243" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="B243" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C243" s="59" t="s">
+      <c r="B243" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C243" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="59" t="s">
+      <c r="A244" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="B244" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C244" s="59" t="s">
+      <c r="B244" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C244" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="59" t="s">
+      <c r="A245" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="B245" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C245" s="59" t="s">
+      <c r="B245" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C245" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="59" t="s">
+      <c r="A246" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B246" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C246" s="59" t="s">
+      <c r="B246" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C246" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="B247" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C247" s="59" t="s">
+      <c r="B247" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C247" s="41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="59" t="s">
+      <c r="A248" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="B248" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C248" s="59" t="s">
+      <c r="B248" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C248" s="41" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="59" t="s">
+      <c r="A249" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="B249" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C249" s="59" t="s">
+      <c r="B249" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C249" s="41" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="59" t="s">
+      <c r="A250" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="B250" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C250" s="59" t="s">
+      <c r="B250" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C250" s="41" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="59" t="s">
+      <c r="A251" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="B251" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C251" s="59" t="s">
+      <c r="B251" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C251" s="41" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="59" t="s">
+      <c r="A252" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="B252" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C252" s="59" t="s">
+      <c r="B252" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C252" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="B253" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C253" s="59" t="s">
+      <c r="B253" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C253" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="59" t="s">
+      <c r="A254" s="41" t="s">
         <v>726</v>
       </c>
-      <c r="B254" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C254" s="59" t="s">
+      <c r="B254" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C254" s="41" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="59" t="s">
+      <c r="A255" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="B255" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C255" s="59" t="s">
+      <c r="B255" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C255" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="59" t="s">
+      <c r="A256" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="B256" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C256" s="59" t="s">
+      <c r="B256" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C256" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="B257" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C257" s="59" t="s">
+      <c r="B257" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C257" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="59" t="s">
+      <c r="A258" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="B258" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C258" s="59" t="s">
+      <c r="B258" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C258" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="59" t="s">
+      <c r="A259" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="B259" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C259" s="59" t="s">
+      <c r="B259" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C259" s="41" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="59" t="s">
+      <c r="A260" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="B260" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C260" s="59" t="s">
+      <c r="B260" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C260" s="41" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="59" t="s">
+      <c r="A261" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="B261" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C261" s="59" t="s">
+      <c r="B261" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C261" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="59" t="s">
+      <c r="A262" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="B262" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C262" s="59" t="s">
+      <c r="B262" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C262" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="59" t="s">
+      <c r="A263" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="B263" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C263" s="59" t="s">
+      <c r="B263" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C263" s="41" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="59" t="s">
+      <c r="A264" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="B264" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C264" s="59" t="s">
+      <c r="B264" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C264" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="59" t="s">
+      <c r="A265" s="41" t="s">
         <v>732</v>
       </c>
-      <c r="B265" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C265" s="59" t="s">
+      <c r="B265" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C265" s="41" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="59" t="s">
+      <c r="A266" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="B266" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C266" s="59" t="s">
+      <c r="B266" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C266" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="59" t="s">
+      <c r="A267" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="B267" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C267" s="59" t="s">
+      <c r="B267" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C267" s="41" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="59" t="s">
+      <c r="A268" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="B268" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C268" s="59" t="s">
+      <c r="B268" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C268" s="41" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="59" t="s">
+      <c r="A269" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="B269" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C269" s="59" t="s">
+      <c r="B269" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C269" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="59" t="s">
+      <c r="A270" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C270" s="59" t="s">
+      <c r="B270" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C270" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="59" t="s">
+      <c r="A271" s="41" t="s">
         <v>621</v>
       </c>
-      <c r="B271" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C271" s="59" t="s">
+      <c r="B271" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C271" s="41" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="59" t="s">
+      <c r="A272" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="B272" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C272" s="59" t="s">
+      <c r="B272" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C272" s="41" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="59" t="s">
+      <c r="A273" s="41" t="s">
         <v>822</v>
       </c>
-      <c r="B273" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C273" s="59" t="s">
+      <c r="B273" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C273" s="41" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="59" t="s">
+      <c r="A274" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="B274" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C274" s="59" t="s">
+      <c r="B274" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C274" s="41" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="59" t="s">
+      <c r="A275" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B275" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C275" s="59" t="s">
+      <c r="B275" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C275" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="59" t="s">
+      <c r="A276" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="B276" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C276" s="59" t="s">
+      <c r="B276" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C276" s="41" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="59" t="s">
+      <c r="A277" s="41" t="s">
         <v>825</v>
       </c>
-      <c r="B277" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C277" s="59" t="s">
+      <c r="B277" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C277" s="41" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="59" t="s">
+      <c r="A278" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="B278" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C278" s="59" t="s">
+      <c r="B278" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C278" s="41" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="59" t="s">
+      <c r="A279" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="B279" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C279" s="59" t="s">
+      <c r="B279" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C279" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="59" t="s">
+      <c r="A280" s="41" t="s">
         <v>734</v>
       </c>
-      <c r="B280" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C280" s="59" t="s">
+      <c r="B280" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C280" s="41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="59" t="s">
+      <c r="A281" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="B281" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C281" s="59" t="s">
+      <c r="B281" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C281" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="59" t="s">
+      <c r="A282" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="B282" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C282" s="59" t="s">
+      <c r="B282" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C282" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="59" t="s">
+      <c r="A283" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="B283" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C283" s="59" t="s">
+      <c r="B283" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C283" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="59" t="s">
+      <c r="A284" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B284" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C284" s="59" t="s">
+      <c r="B284" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C284" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="59" t="s">
+      <c r="A285" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="B285" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C285" s="59" t="s">
+      <c r="B285" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C285" s="41" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="59" t="s">
+      <c r="A286" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="B286" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C286" s="59" t="s">
+      <c r="B286" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C286" s="41" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="59" t="s">
+      <c r="A287" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B287" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C287" s="59" t="s">
+      <c r="B287" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="59" t="s">
+      <c r="A288" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B288" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C288" s="59" t="s">
+      <c r="B288" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C288" s="41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="59" t="s">
+      <c r="A289" s="41" t="s">
         <v>736</v>
       </c>
-      <c r="B289" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C289" s="59" t="s">
+      <c r="B289" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C289" s="41" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="59" t="s">
+      <c r="A290" s="41" t="s">
         <v>633</v>
       </c>
-      <c r="B290" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C290" s="59" t="s">
+      <c r="B290" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C290" s="41" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="59" t="s">
+      <c r="A291" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="B291" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C291" s="59" t="s">
+      <c r="B291" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C291" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="59" t="s">
+      <c r="A292" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="B292" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C292" s="59" t="s">
+      <c r="B292" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C292" s="41" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="59" t="s">
+      <c r="A293" s="41" t="s">
         <v>738</v>
       </c>
-      <c r="B293" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C293" s="59" t="s">
+      <c r="B293" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C293" s="41" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="59" t="s">
+      <c r="A294" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B294" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C294" s="59" t="s">
+      <c r="B294" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C294" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="59" t="s">
+      <c r="A295" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B295" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C295" s="59" t="s">
+      <c r="B295" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="59" t="s">
+      <c r="A296" s="41" t="s">
         <v>828</v>
       </c>
-      <c r="B296" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C296" s="59" t="s">
+      <c r="B296" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C296" s="41" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="59" t="s">
+      <c r="A297" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B297" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C297" s="59" t="s">
+      <c r="B297" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C297" s="41" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="59" t="s">
+      <c r="A298" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="B298" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C298" s="59" t="s">
+      <c r="B298" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C298" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="59" t="s">
+      <c r="A299" s="41" t="s">
         <v>685</v>
       </c>
-      <c r="B299" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C299" s="59" t="s">
+      <c r="B299" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C299" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="59" t="s">
+      <c r="A300" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="B300" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C300" s="59" t="s">
+      <c r="B300" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C300" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="59" t="s">
+      <c r="A301" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="B301" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C301" s="59" t="s">
+      <c r="B301" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C301" s="41" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="59" t="s">
+      <c r="A302" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="B302" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C302" s="59" t="s">
+      <c r="B302" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C302" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="59" t="s">
+      <c r="A303" s="41" t="s">
         <v>831</v>
       </c>
-      <c r="B303" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C303" s="59" t="s">
+      <c r="B303" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C303" s="41" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="59" t="s">
+      <c r="A304" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="B304" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C304" s="59" t="s">
+      <c r="B304" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C304" s="41" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="59" t="s">
+      <c r="A305" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B305" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C305" s="59" t="s">
+      <c r="B305" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C305" s="41" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="59" t="s">
+      <c r="A306" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B306" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C306" s="59" t="s">
+      <c r="B306" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C306" s="41" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="59" t="s">
+      <c r="A307" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="B307" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C307" s="59" t="s">
+      <c r="B307" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C307" s="41" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="59" t="s">
+      <c r="A308" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="B308" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C308" s="59" t="s">
+      <c r="B308" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C308" s="41" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="59" t="s">
+      <c r="A309" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="B309" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C309" s="59" t="s">
+      <c r="B309" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C309" s="41" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="59" t="s">
+      <c r="A310" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="B310" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C310" s="59" t="s">
+      <c r="B310" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C310" s="41" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="59" t="s">
+      <c r="A311" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C311" s="59" t="s">
+      <c r="B311" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C311" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="59" t="s">
+      <c r="A312" s="41" t="s">
         <v>642</v>
       </c>
-      <c r="B312" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C312" s="59" t="s">
+      <c r="B312" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C312" s="41" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="59" t="s">
+      <c r="A313" s="41" t="s">
         <v>740</v>
       </c>
-      <c r="B313" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C313" s="59" t="s">
+      <c r="B313" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C313" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="59" t="s">
+      <c r="A314" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B314" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C314" s="59" t="s">
+      <c r="B314" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C314" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="59" t="s">
+      <c r="A315" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B315" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C315" s="59" t="s">
+      <c r="B315" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C315" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="59" t="s">
+      <c r="A316" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="B316" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C316" s="59" t="s">
+      <c r="B316" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C316" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="59" t="s">
+      <c r="A317" s="41" t="s">
         <v>511</v>
       </c>
-      <c r="B317" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C317" s="59" t="s">
+      <c r="B317" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C317" s="41" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="59" t="s">
+      <c r="A318" s="41" t="s">
         <v>645</v>
       </c>
-      <c r="B318" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C318" s="59" t="s">
+      <c r="B318" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C318" s="41" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="59" t="s">
+      <c r="A319" s="41" t="s">
         <v>742</v>
       </c>
-      <c r="B319" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C319" s="59" t="s">
+      <c r="B319" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C319" s="41" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="59" t="s">
+      <c r="A320" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="B320" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C320" s="59" t="s">
+      <c r="B320" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C320" s="41" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="59" t="s">
+      <c r="A321" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="B321" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C321" s="59" t="s">
+      <c r="B321" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C321" s="41" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="59" t="s">
+      <c r="A322" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B322" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C322" s="59" t="s">
+      <c r="B322" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C322" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="59" t="s">
+      <c r="A323" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="B323" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C323" s="59" t="s">
+      <c r="B323" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C323" s="41" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="59" t="s">
+      <c r="A324" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="B324" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C324" s="59" t="s">
+      <c r="B324" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C324" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="59" t="s">
+      <c r="A325" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="B325" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C325" s="59" t="s">
+      <c r="B325" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C325" s="41" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="59" t="s">
+      <c r="A326" s="41" t="s">
         <v>648</v>
       </c>
-      <c r="B326" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C326" s="59" t="s">
+      <c r="B326" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C326" s="41" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="59" t="s">
+      <c r="A327" s="41" t="s">
         <v>651</v>
       </c>
-      <c r="B327" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C327" s="59" t="s">
+      <c r="B327" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C327" s="41" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="59" t="s">
+      <c r="A328" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="B328" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C328" s="59" t="s">
+      <c r="B328" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C328" s="41" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="59" t="s">
+      <c r="A329" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B329" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C329" s="59" t="s">
+      <c r="B329" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C329" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="59" t="s">
+      <c r="A330" s="41" t="s">
         <v>836</v>
       </c>
-      <c r="B330" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C330" s="59" t="s">
+      <c r="B330" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C330" s="41" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="59" t="s">
+      <c r="A331" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B331" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C331" s="59" t="s">
+      <c r="B331" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C331" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="59" t="s">
+      <c r="A332" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="B332" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C332" s="59" t="s">
+      <c r="B332" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C332" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="59" t="s">
+      <c r="A333" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="B333" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C333" s="59" t="s">
+      <c r="B333" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C333" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="59" t="s">
+      <c r="A334" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="B334" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C334" s="59" t="s">
+      <c r="B334" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C334" s="41" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="59" t="s">
+      <c r="A335" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="B335" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C335" s="59" t="s">
+      <c r="B335" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C335" s="41" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="59" t="s">
+      <c r="A336" s="41" t="s">
         <v>746</v>
       </c>
-      <c r="B336" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C336" s="59" t="s">
+      <c r="B336" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C336" s="41" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="59" t="s">
+      <c r="A337" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="B337" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C337" s="59" t="s">
+      <c r="B337" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C337" s="41" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="59" t="s">
+      <c r="A338" s="41" t="s">
         <v>664</v>
       </c>
-      <c r="B338" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C338" s="59" t="s">
+      <c r="B338" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C338" s="41" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="59" t="s">
+      <c r="A339" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="B339" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C339" s="59" t="s">
+      <c r="B339" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C339" s="41" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="59" t="s">
+      <c r="A340" s="41" t="s">
         <v>841</v>
       </c>
-      <c r="B340" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C340" s="59" t="s">
+      <c r="B340" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C340" s="41" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="59" t="s">
+      <c r="A341" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="B341" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C341" s="59" t="s">
+      <c r="B341" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C341" s="41" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="59" t="s">
+      <c r="A342" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="B342" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C342" s="59" t="s">
+      <c r="B342" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C342" s="41" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="59" t="s">
+      <c r="A343" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B343" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C343" s="59" t="s">
+      <c r="B343" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C343" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="59" t="s">
+      <c r="A344" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B344" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C344" s="59" t="s">
+      <c r="B344" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C344" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="59" t="s">
+      <c r="A345" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="B345" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="C345" s="59" t="s">
+      <c r="B345" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="C345" s="41" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="59" t="s">
+      <c r="A346" s="41" t="s">
         <v>856</v>
       </c>
-      <c r="B346" s="59" t="s">
+      <c r="B346" s="41" t="s">
         <v>853</v>
       </c>
-      <c r="C346" s="59" t="s">
+      <c r="C346" s="41" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="59" t="s">
+      <c r="A347" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B347" s="59" t="s">
+      <c r="B347" s="41" t="s">
         <v>853</v>
       </c>
-      <c r="C347" s="59" t="s">
+      <c r="C347" s="41" t="s">
         <v>852</v>
       </c>
     </row>

--- a/public/templates/NHWA_Module_7.xlsx
+++ b/public/templates/NHWA_Module_7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DC464-98DB-4D73-A5A6-4E32091BFCFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD8E0B-899A-4D39-A71D-29D48180C641}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vRoAhS0rW8VdaCjC0jiNkyzhfUhUN8O0GIavS/WNYJOr4UGcqTfBGSfxANT2utkB68Nc8OFRdzVPgsHM1hjZNw==" workbookSaltValue="OBPkzVWhmznmZsKgV0qbjw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -4227,8 +4227,8 @@
     <col min="19" max="19" width="12" style="3" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="33" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="31" width="9.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" style="3" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -5034,6 +5034,10 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19:P36" ca="1" si="2">P20+1</f>
+        <v>2020</v>
+      </c>
       <c r="Y19" s="39" t="s">
         <v>54</v>
       </c>
@@ -5070,6 +5074,10 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
+      <c r="P20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
       <c r="Y20" s="39" t="s">
         <v>111</v>
       </c>
@@ -5102,6 +5110,10 @@
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
+      <c r="P21" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
       <c r="Y21" s="39" t="s">
         <v>112</v>
       </c>
@@ -5128,6 +5140,10 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
       <c r="Y22" s="39" t="s">
         <v>55</v>
       </c>
@@ -5154,6 +5170,10 @@
       </c>
     </row>
     <row r="23" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
       <c r="Y23" s="39" t="s">
         <v>12</v>
       </c>
@@ -5180,6 +5200,10 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
       <c r="Y24" s="39" t="s">
         <v>529</v>
       </c>
@@ -5206,6 +5230,10 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
       <c r="Y25" s="39" t="s">
         <v>157</v>
       </c>
@@ -5232,6 +5260,10 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
       <c r="Y26" s="39" t="s">
         <v>56</v>
       </c>
@@ -5258,6 +5290,10 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
       <c r="Y27" s="39" t="s">
         <v>532</v>
       </c>
@@ -5284,6 +5320,10 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
       <c r="Y28" s="39" t="s">
         <v>113</v>
       </c>
@@ -5310,6 +5350,10 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
       <c r="Y29" s="39" t="s">
         <v>14</v>
       </c>
@@ -5336,6 +5380,10 @@
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
       <c r="Y30" s="39" t="s">
         <v>779</v>
       </c>
@@ -5362,6 +5410,10 @@
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
       <c r="Y31" s="39" t="s">
         <v>57</v>
       </c>
@@ -5388,6 +5440,10 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
       <c r="Y32" s="39" t="s">
         <v>782</v>
       </c>
@@ -5413,7 +5469,11 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
       <c r="Y33" s="39" t="s">
         <v>535</v>
       </c>
@@ -5439,7 +5499,11 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
       <c r="Y34" s="39" t="s">
         <v>168</v>
       </c>
@@ -5465,7 +5529,11 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
       <c r="Y35" s="39" t="s">
         <v>114</v>
       </c>
@@ -5491,7 +5559,11 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2003</v>
+      </c>
       <c r="Y36" s="39" t="s">
         <v>15</v>
       </c>
@@ -5517,7 +5589,11 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P37" s="3">
+        <f ca="1">P38+1</f>
+        <v>2002</v>
+      </c>
       <c r="Y37" s="39" t="s">
         <v>16</v>
       </c>
@@ -5543,7 +5619,11 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P38" s="3">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="Y38" s="39" t="s">
         <v>208</v>
       </c>
@@ -5569,7 +5649,7 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y39" s="39" t="s">
         <v>169</v>
       </c>
@@ -5595,7 +5675,7 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y40" s="39" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5701,7 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y41" s="39" t="s">
         <v>58</v>
       </c>
@@ -5647,7 +5727,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y42" s="39" t="s">
         <v>538</v>
       </c>
@@ -5673,7 +5753,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y43" s="39" t="s">
         <v>18</v>
       </c>
@@ -5699,7 +5779,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y44" s="39" t="s">
         <v>19</v>
       </c>
@@ -5725,7 +5805,7 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y45" s="39" t="s">
         <v>59</v>
       </c>
@@ -5751,7 +5831,7 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y46" s="39" t="s">
         <v>698</v>
       </c>
@@ -5777,7 +5857,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="39" t="s">
         <v>785</v>
       </c>
@@ -5803,7 +5883,7 @@
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="39" t="s">
         <v>786</v>
       </c>
@@ -6382,7 +6462,7 @@
         <v>414</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" ref="AC67:AC130" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
+        <f t="shared" ref="AC67:AC130" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD67" s="3">
@@ -6408,7 +6488,7 @@
         <v>368</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD68" s="3">
@@ -6434,7 +6514,7 @@
         <v>296</v>
       </c>
       <c r="AC69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD69" s="3">
@@ -6460,7 +6540,7 @@
         <v>296</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD70" s="3">
@@ -6486,7 +6566,7 @@
         <v>296</v>
       </c>
       <c r="AC71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD71" s="3">
@@ -6512,7 +6592,7 @@
         <v>368</v>
       </c>
       <c r="AC72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD72" s="3">
@@ -6538,7 +6618,7 @@
         <v>296</v>
       </c>
       <c r="AC73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD73" s="3">
@@ -6564,7 +6644,7 @@
         <v>198</v>
       </c>
       <c r="AC74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD74" s="3">
@@ -6590,7 +6670,7 @@
         <v>198</v>
       </c>
       <c r="AC75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD75" s="3">
@@ -6616,7 +6696,7 @@
         <v>414</v>
       </c>
       <c r="AC76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD76" s="3">
@@ -6642,7 +6722,7 @@
         <v>198</v>
       </c>
       <c r="AC77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD77" s="3">
@@ -6668,7 +6748,7 @@
         <v>198</v>
       </c>
       <c r="AC78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD78" s="3">
@@ -6694,7 +6774,7 @@
         <v>522</v>
       </c>
       <c r="AC79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD79" s="3">
@@ -6720,7 +6800,7 @@
         <v>522</v>
       </c>
       <c r="AC80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD80" s="3">
@@ -6746,7 +6826,7 @@
         <v>693</v>
       </c>
       <c r="AC81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD81" s="3">
@@ -6772,7 +6852,7 @@
         <v>414</v>
       </c>
       <c r="AC82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD82" s="3">
@@ -6798,7 +6878,7 @@
         <v>414</v>
       </c>
       <c r="AC83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD83" s="3">
@@ -6824,7 +6904,7 @@
         <v>522</v>
       </c>
       <c r="AC84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD84" s="3">
@@ -6850,7 +6930,7 @@
         <v>693</v>
       </c>
       <c r="AC85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD85" s="3">
@@ -6876,7 +6956,7 @@
         <v>522</v>
       </c>
       <c r="AC86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD86" s="3">
@@ -6902,7 +6982,7 @@
         <v>198</v>
       </c>
       <c r="AC87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD87" s="3">
@@ -6928,7 +7008,7 @@
         <v>198</v>
       </c>
       <c r="AC88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD88" s="3">
@@ -6954,7 +7034,7 @@
         <v>414</v>
       </c>
       <c r="AC89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD89" s="3">
@@ -6980,7 +7060,7 @@
         <v>414</v>
       </c>
       <c r="AC90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD90" s="3">
@@ -7006,7 +7086,7 @@
         <v>522</v>
       </c>
       <c r="AC91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD91" s="3">
@@ -7032,7 +7112,7 @@
         <v>522</v>
       </c>
       <c r="AC92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD92" s="3">
@@ -7058,7 +7138,7 @@
         <v>522</v>
       </c>
       <c r="AC93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD93" s="3">
@@ -7084,7 +7164,7 @@
         <v>198</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD94" s="3">
@@ -7110,7 +7190,7 @@
         <v>522</v>
       </c>
       <c r="AC95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD95" s="3">
@@ -7136,7 +7216,7 @@
         <v>414</v>
       </c>
       <c r="AC96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD96" s="3">
@@ -7162,7 +7242,7 @@
         <v>414</v>
       </c>
       <c r="AC97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD97" s="3">
@@ -7188,7 +7268,7 @@
         <v>296</v>
       </c>
       <c r="AC98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD98" s="3">
@@ -7214,7 +7294,7 @@
         <v>522</v>
       </c>
       <c r="AC99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD99" s="3">
@@ -7240,7 +7320,7 @@
         <v>693</v>
       </c>
       <c r="AC100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD100" s="3">
@@ -7266,7 +7346,7 @@
         <v>296</v>
       </c>
       <c r="AC101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD101" s="3">
@@ -7292,7 +7372,7 @@
         <v>522</v>
       </c>
       <c r="AC102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD102" s="3">
@@ -7318,7 +7398,7 @@
         <v>198</v>
       </c>
       <c r="AC103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD103" s="3">
@@ -7344,7 +7424,7 @@
         <v>198</v>
       </c>
       <c r="AC104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD104" s="3">
@@ -7370,7 +7450,7 @@
         <v>296</v>
       </c>
       <c r="AC105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD105" s="3">
@@ -7396,7 +7476,7 @@
         <v>296</v>
       </c>
       <c r="AC106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD106" s="3">
@@ -7422,7 +7502,7 @@
         <v>522</v>
       </c>
       <c r="AC107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD107" s="3">
@@ -7448,7 +7528,7 @@
         <v>522</v>
       </c>
       <c r="AC108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD108" s="3">
@@ -7474,7 +7554,7 @@
         <v>296</v>
       </c>
       <c r="AC109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD109" s="3">
@@ -7500,7 +7580,7 @@
         <v>414</v>
       </c>
       <c r="AC110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD110" s="3">
@@ -7526,7 +7606,7 @@
         <v>414</v>
       </c>
       <c r="AC111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD111" s="3">
@@ -7552,7 +7632,7 @@
         <v>670</v>
       </c>
       <c r="AC112" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD112" s="3">
@@ -7578,7 +7658,7 @@
         <v>670</v>
       </c>
       <c r="AC113" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD113" s="3">
@@ -7604,7 +7684,7 @@
         <v>368</v>
       </c>
       <c r="AC114" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD114" s="3">
@@ -7630,7 +7710,7 @@
         <v>368</v>
       </c>
       <c r="AC115" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD115" s="3">
@@ -7656,7 +7736,7 @@
         <v>414</v>
       </c>
       <c r="AC116" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD116" s="3">
@@ -7682,7 +7762,7 @@
         <v>522</v>
       </c>
       <c r="AC117" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD117" s="3">
@@ -7708,7 +7788,7 @@
         <v>414</v>
       </c>
       <c r="AC118" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD118" s="3">
@@ -7734,7 +7814,7 @@
         <v>414</v>
       </c>
       <c r="AC119" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD119" s="3">
@@ -7760,7 +7840,7 @@
         <v>296</v>
       </c>
       <c r="AC120" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD120" s="3">
@@ -7786,7 +7866,7 @@
         <v>693</v>
       </c>
       <c r="AC121" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD121" s="3">
@@ -7812,7 +7892,7 @@
         <v>522</v>
       </c>
       <c r="AC122" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD122" s="3">
@@ -7838,7 +7918,7 @@
         <v>368</v>
       </c>
       <c r="AC123" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD123" s="3">
@@ -7864,7 +7944,7 @@
         <v>414</v>
       </c>
       <c r="AC124" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD124" s="3">
@@ -7890,7 +7970,7 @@
         <v>198</v>
       </c>
       <c r="AC125" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD125" s="3">
@@ -7916,7 +7996,7 @@
         <v>693</v>
       </c>
       <c r="AC126" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD126" s="3">
@@ -7942,7 +8022,7 @@
         <v>368</v>
       </c>
       <c r="AC127" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD127" s="3">
@@ -7968,7 +8048,7 @@
         <v>414</v>
       </c>
       <c r="AC128" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD128" s="3">
@@ -7994,7 +8074,7 @@
         <v>693</v>
       </c>
       <c r="AC129" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD129" s="3">
@@ -8020,7 +8100,7 @@
         <v>414</v>
       </c>
       <c r="AC130" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD130" s="3">
@@ -8046,7 +8126,7 @@
         <v>368</v>
       </c>
       <c r="AC131" s="3">
-        <f t="shared" ref="AC131:AC194" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
+        <f t="shared" ref="AC131:AC194" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD131" s="3">
@@ -8072,7 +8152,7 @@
         <v>198</v>
       </c>
       <c r="AC132" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD132" s="3">
@@ -8098,7 +8178,7 @@
         <v>198</v>
       </c>
       <c r="AC133" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD133" s="3">
@@ -8124,7 +8204,7 @@
         <v>368</v>
       </c>
       <c r="AC134" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD134" s="3">
@@ -8150,7 +8230,7 @@
         <v>522</v>
       </c>
       <c r="AC135" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD135" s="3">
@@ -8176,7 +8256,7 @@
         <v>414</v>
       </c>
       <c r="AC136" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD136" s="3">
@@ -8202,7 +8282,7 @@
         <v>414</v>
       </c>
       <c r="AC137" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD137" s="3">
@@ -8228,7 +8308,7 @@
         <v>198</v>
       </c>
       <c r="AC138" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD138" s="3">
@@ -8254,7 +8334,7 @@
         <v>198</v>
       </c>
       <c r="AC139" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD139" s="3">
@@ -8280,7 +8360,7 @@
         <v>693</v>
       </c>
       <c r="AC140" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD140" s="3">
@@ -8306,7 +8386,7 @@
         <v>670</v>
       </c>
       <c r="AC141" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD141" s="3">
@@ -8332,7 +8412,7 @@
         <v>198</v>
       </c>
       <c r="AC142" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD142" s="3">
@@ -8358,7 +8438,7 @@
         <v>414</v>
       </c>
       <c r="AC143" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD143" s="3">
@@ -8384,7 +8464,7 @@
         <v>693</v>
       </c>
       <c r="AC144" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD144" s="3">
@@ -8410,7 +8490,7 @@
         <v>522</v>
       </c>
       <c r="AC145" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD145" s="3">
@@ -8436,7 +8516,7 @@
         <v>198</v>
       </c>
       <c r="AC146" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD146" s="3">
@@ -8462,7 +8542,7 @@
         <v>198</v>
       </c>
       <c r="AC147" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD147" s="3">
@@ -8488,7 +8568,7 @@
         <v>522</v>
       </c>
       <c r="AC148" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD148" s="3">
@@ -8514,7 +8594,7 @@
         <v>296</v>
       </c>
       <c r="AC149" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD149" s="3">
@@ -8540,7 +8620,7 @@
         <v>693</v>
       </c>
       <c r="AC150" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD150" s="3">
@@ -8566,7 +8646,7 @@
         <v>414</v>
       </c>
       <c r="AC151" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD151" s="3">
@@ -8592,7 +8672,7 @@
         <v>693</v>
       </c>
       <c r="AC152" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD152" s="3">
@@ -8618,7 +8698,7 @@
         <v>414</v>
       </c>
       <c r="AC153" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD153" s="3">
@@ -8644,7 +8724,7 @@
         <v>296</v>
       </c>
       <c r="AC154" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD154" s="3">
@@ -8670,7 +8750,7 @@
         <v>368</v>
       </c>
       <c r="AC155" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD155" s="3">
@@ -8696,7 +8776,7 @@
         <v>198</v>
       </c>
       <c r="AC156" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD156" s="3">
@@ -8722,7 +8802,7 @@
         <v>670</v>
       </c>
       <c r="AC157" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD157" s="3">
@@ -8748,7 +8828,7 @@
         <v>198</v>
       </c>
       <c r="AC158" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD158" s="3">
@@ -8774,7 +8854,7 @@
         <v>693</v>
       </c>
       <c r="AC159" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD159" s="3">
@@ -8800,7 +8880,7 @@
         <v>670</v>
       </c>
       <c r="AC160" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD160" s="3">
@@ -8826,7 +8906,7 @@
         <v>414</v>
       </c>
       <c r="AC161" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD161" s="3">
@@ -8852,7 +8932,7 @@
         <v>522</v>
       </c>
       <c r="AC162" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD162" s="3">
@@ -8878,7 +8958,7 @@
         <v>693</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD163" s="3">
@@ -8904,7 +8984,7 @@
         <v>693</v>
       </c>
       <c r="AC164" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD164" s="3">
@@ -8930,7 +9010,7 @@
         <v>296</v>
       </c>
       <c r="AC165" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD165" s="3">
@@ -8956,7 +9036,7 @@
         <v>198</v>
       </c>
       <c r="AC166" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD166" s="3">
@@ -8982,7 +9062,7 @@
         <v>198</v>
       </c>
       <c r="AC167" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD167" s="3">
@@ -9008,7 +9088,7 @@
         <v>693</v>
       </c>
       <c r="AC168" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD168" s="3">
@@ -9034,7 +9114,7 @@
         <v>522</v>
       </c>
       <c r="AC169" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD169" s="3">
@@ -9060,7 +9140,7 @@
         <v>414</v>
       </c>
       <c r="AC170" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD170" s="3">
@@ -9086,7 +9166,7 @@
         <v>693</v>
       </c>
       <c r="AC171" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD171" s="3">
@@ -9112,7 +9192,7 @@
         <v>414</v>
       </c>
       <c r="AC172" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD172" s="3">
@@ -9138,7 +9218,7 @@
         <v>368</v>
       </c>
       <c r="AC173" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD173" s="3">
@@ -9164,7 +9244,7 @@
         <v>368</v>
       </c>
       <c r="AC174" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD174" s="3">
@@ -9190,7 +9270,7 @@
         <v>693</v>
       </c>
       <c r="AC175" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD175" s="3">
@@ -9216,7 +9296,7 @@
         <v>296</v>
       </c>
       <c r="AC176" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD176" s="3">
@@ -9242,7 +9322,7 @@
         <v>693</v>
       </c>
       <c r="AC177" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD177" s="3">
@@ -9268,7 +9348,7 @@
         <v>296</v>
       </c>
       <c r="AC178" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD178" s="3">
@@ -9294,7 +9374,7 @@
         <v>296</v>
       </c>
       <c r="AC179" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD179" s="3">
@@ -9320,7 +9400,7 @@
         <v>693</v>
       </c>
       <c r="AC180" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD180" s="3">
@@ -9346,7 +9426,7 @@
         <v>522</v>
       </c>
       <c r="AC181" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD181" s="3">
@@ -9372,7 +9452,7 @@
         <v>414</v>
       </c>
       <c r="AC182" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD182" s="3">
@@ -9398,7 +9478,7 @@
         <v>414</v>
       </c>
       <c r="AC183" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD183" s="3">
@@ -9424,7 +9504,7 @@
         <v>296</v>
       </c>
       <c r="AC184" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD184" s="3">
@@ -9450,7 +9530,7 @@
         <v>368</v>
       </c>
       <c r="AC185" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD185" s="3">
@@ -9476,7 +9556,7 @@
         <v>693</v>
       </c>
       <c r="AC186" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD186" s="3">
@@ -9502,7 +9582,7 @@
         <v>414</v>
       </c>
       <c r="AC187" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD187" s="3">
@@ -9528,7 +9608,7 @@
         <v>522</v>
       </c>
       <c r="AC188" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD188" s="3">
@@ -9554,7 +9634,7 @@
         <v>414</v>
       </c>
       <c r="AC189" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD189" s="3">
@@ -9580,7 +9660,7 @@
         <v>414</v>
       </c>
       <c r="AC190" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD190" s="3">
@@ -9606,7 +9686,7 @@
         <v>198</v>
       </c>
       <c r="AC191" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD191" s="3">
@@ -9632,7 +9712,7 @@
         <v>522</v>
       </c>
       <c r="AC192" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD192" s="3">
@@ -9658,7 +9738,7 @@
         <v>522</v>
       </c>
       <c r="AC193" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD193" s="3">
@@ -9684,7 +9764,7 @@
         <v>522</v>
       </c>
       <c r="AC194" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD194" s="3">
@@ -9710,7 +9790,7 @@
         <v>522</v>
       </c>
       <c r="AC195" s="3">
-        <f t="shared" ref="AC195:AC258" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
+        <f t="shared" ref="AC195:AC258" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD195" s="3">
@@ -9736,7 +9816,7 @@
         <v>296</v>
       </c>
       <c r="AC196" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD196" s="3">
@@ -9762,7 +9842,7 @@
         <v>296</v>
       </c>
       <c r="AC197" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD197" s="3">
@@ -9788,7 +9868,7 @@
         <v>522</v>
       </c>
       <c r="AC198" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD198" s="3">
@@ -9814,7 +9894,7 @@
         <v>522</v>
       </c>
       <c r="AC199" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD199" s="3">
@@ -9840,7 +9920,7 @@
         <v>296</v>
       </c>
       <c r="AC200" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD200" s="3">
@@ -9866,7 +9946,7 @@
         <v>693</v>
       </c>
       <c r="AC201" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD201" s="3">
@@ -9892,7 +9972,7 @@
         <v>414</v>
       </c>
       <c r="AC202" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD202" s="3">
@@ -9918,7 +9998,7 @@
         <v>198</v>
       </c>
       <c r="AC203" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD203" s="3">
@@ -9944,7 +10024,7 @@
         <v>368</v>
       </c>
       <c r="AC204" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD204" s="3">
@@ -9970,7 +10050,7 @@
         <v>198</v>
       </c>
       <c r="AC205" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD205" s="3">
@@ -9996,7 +10076,7 @@
         <v>414</v>
       </c>
       <c r="AC206" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD206" s="3">
@@ -10022,7 +10102,7 @@
         <v>522</v>
       </c>
       <c r="AC207" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD207" s="3">
@@ -10048,7 +10128,7 @@
         <v>198</v>
       </c>
       <c r="AC208" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD208" s="3">
@@ -10074,7 +10154,7 @@
         <v>198</v>
       </c>
       <c r="AC209" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD209" s="3">
@@ -10100,7 +10180,7 @@
         <v>693</v>
       </c>
       <c r="AC210" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD210" s="3">
@@ -10126,7 +10206,7 @@
         <v>296</v>
       </c>
       <c r="AC211" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD211" s="3">
@@ -10152,7 +10232,7 @@
         <v>414</v>
       </c>
       <c r="AC212" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD212" s="3">
@@ -10178,7 +10258,7 @@
         <v>414</v>
       </c>
       <c r="AC213" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD213" s="3">
@@ -10204,7 +10284,7 @@
         <v>693</v>
       </c>
       <c r="AC214" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD214" s="3">
@@ -10230,7 +10310,7 @@
         <v>368</v>
       </c>
       <c r="AC215" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD215" s="3">
@@ -10256,7 +10336,7 @@
         <v>198</v>
       </c>
       <c r="AC216" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD216" s="3">
@@ -10282,7 +10362,7 @@
         <v>522</v>
       </c>
       <c r="AC217" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD217" s="3">
@@ -10308,7 +10388,7 @@
         <v>198</v>
       </c>
       <c r="AC218" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD218" s="3">
@@ -10334,7 +10414,7 @@
         <v>414</v>
       </c>
       <c r="AC219" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD219" s="3">
@@ -10360,7 +10440,7 @@
         <v>670</v>
       </c>
       <c r="AC220" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD220" s="3">
@@ -10386,7 +10466,7 @@
         <v>368</v>
       </c>
       <c r="AC221" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD221" s="3">
@@ -10412,7 +10492,7 @@
         <v>522</v>
       </c>
       <c r="AC222" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD222" s="3">
@@ -10438,7 +10518,7 @@
         <v>296</v>
       </c>
       <c r="AC223" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD223" s="3">
@@ -10464,7 +10544,7 @@
         <v>522</v>
       </c>
       <c r="AC224" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD224" s="3">
@@ -10490,7 +10570,7 @@
         <v>414</v>
       </c>
       <c r="AC225" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD225" s="3">
@@ -10516,7 +10596,7 @@
         <v>414</v>
       </c>
       <c r="AC226" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD226" s="3">
@@ -10542,7 +10622,7 @@
         <v>368</v>
       </c>
       <c r="AC227" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD227" s="3">
@@ -10568,7 +10648,7 @@
         <v>414</v>
       </c>
       <c r="AC228" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD228" s="3">
@@ -10594,7 +10674,7 @@
         <v>670</v>
       </c>
       <c r="AC229" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD229" s="3">
@@ -10620,7 +10700,7 @@
         <v>522</v>
       </c>
       <c r="AC230" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD230" s="3">
@@ -10646,7 +10726,7 @@
         <v>670</v>
       </c>
       <c r="AC231" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD231" s="3">
@@ -10672,7 +10752,7 @@
         <v>198</v>
       </c>
       <c r="AC232" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD232" s="3">
@@ -10698,7 +10778,7 @@
         <v>693</v>
       </c>
       <c r="AC233" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD233" s="3">
@@ -10724,7 +10804,7 @@
         <v>693</v>
       </c>
       <c r="AC234" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD234" s="3">
@@ -10750,7 +10830,7 @@
         <v>296</v>
       </c>
       <c r="AC235" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD235" s="3">
@@ -10776,7 +10856,7 @@
         <v>368</v>
       </c>
       <c r="AC236" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD236" s="3">
@@ -10802,7 +10882,7 @@
         <v>414</v>
       </c>
       <c r="AC237" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD237" s="3">
@@ -10828,7 +10908,7 @@
         <v>414</v>
       </c>
       <c r="AC238" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD238" s="3">
@@ -10854,7 +10934,7 @@
         <v>296</v>
       </c>
       <c r="AC239" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD239" s="3">
@@ -10880,7 +10960,7 @@
         <v>693</v>
       </c>
       <c r="AC240" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD240" s="3">
@@ -10906,7 +10986,7 @@
         <v>296</v>
       </c>
       <c r="AC241" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD241" s="3">
@@ -10932,7 +11012,7 @@
         <v>522</v>
       </c>
       <c r="AC242" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD242" s="3">
@@ -10958,7 +11038,7 @@
         <v>198</v>
       </c>
       <c r="AC243" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD243" s="3">
@@ -10984,7 +11064,7 @@
         <v>414</v>
       </c>
       <c r="AC244" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD244" s="3">
@@ -11010,7 +11090,7 @@
         <v>368</v>
       </c>
       <c r="AC245" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD245" s="3">
@@ -11036,7 +11116,7 @@
         <v>414</v>
       </c>
       <c r="AC246" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD246" s="3">
@@ -11062,7 +11142,7 @@
         <v>522</v>
       </c>
       <c r="AC247" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD247" s="3">
@@ -11088,7 +11168,7 @@
         <v>522</v>
       </c>
       <c r="AC248" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD248" s="3">
@@ -11114,7 +11194,7 @@
         <v>522</v>
       </c>
       <c r="AC249" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD249" s="3">
@@ -11140,7 +11220,7 @@
         <v>198</v>
       </c>
       <c r="AC250" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD250" s="3">
@@ -11166,7 +11246,7 @@
         <v>522</v>
       </c>
       <c r="AC251" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD251" s="3">
@@ -11192,7 +11272,7 @@
         <v>296</v>
       </c>
       <c r="AC252" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD252" s="3">
@@ -11218,7 +11298,7 @@
         <v>296</v>
       </c>
       <c r="AC253" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD253" s="3">
@@ -11244,7 +11324,7 @@
         <v>414</v>
       </c>
       <c r="AC254" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD254" s="3">
@@ -11270,7 +11350,7 @@
         <v>693</v>
       </c>
       <c r="AC255" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD255" s="3">
@@ -11296,7 +11376,7 @@
         <v>296</v>
       </c>
       <c r="AC256" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD256" s="3">
@@ -11322,7 +11402,7 @@
         <v>693</v>
       </c>
       <c r="AC257" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD257" s="3">
@@ -11348,7 +11428,7 @@
         <v>693</v>
       </c>
       <c r="AC258" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD258" s="3">
@@ -11374,7 +11454,7 @@
         <v>522</v>
       </c>
       <c r="AC259" s="3">
-        <f t="shared" ref="AC259:AC266" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
+        <f t="shared" ref="AC259:AC266" si="6">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD259" s="3">
@@ -11400,7 +11480,7 @@
         <v>368</v>
       </c>
       <c r="AC260" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD260" s="3">
@@ -11426,7 +11506,7 @@
         <v>522</v>
       </c>
       <c r="AC261" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD261" s="3">
@@ -11452,7 +11532,7 @@
         <v>368</v>
       </c>
       <c r="AC262" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD262" s="3">
@@ -11478,7 +11558,7 @@
         <v>522</v>
       </c>
       <c r="AC263" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD263" s="3">
@@ -11504,7 +11584,7 @@
         <v>198</v>
       </c>
       <c r="AC264" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD264" s="3">
@@ -11530,7 +11610,7 @@
         <v>198</v>
       </c>
       <c r="AC265" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD265" s="3">
@@ -11556,7 +11636,7 @@
         <v>522</v>
       </c>
       <c r="AC266" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD266" s="3">
@@ -11569,7 +11649,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6twbg5IuhYAt0S2IR3IrJqk87b/Bl+uQwD4iyhNNxQzoNndIbD5c7+52CSuPJz9lZBK7qokGEsfxWLFGB/7uNQ==" saltValue="j9TzfXxaa3Wy6826uvVKDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6XVWBknrlJZZ2QzBWpiec/GSKLpLjfPxlEUcCjCAh5uydCKa66AkVUbS8fKl7L9O69z+OO9j7wT4+WobjiAFBA==" saltValue="PDLkKuiOQGbA0AuJxjsqrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 H8:P15" name="Range1"/>
     <protectedRange sqref="E10:F12 D9:G9 D16:G17 E20:G20 G12 D12 E6:G8 D13:G13 D21:G21" name="Range1_1"/>
@@ -11603,9 +11683,8 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:G16 E20:G20 E8:G8 G12" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{6434E44C-F735-4561-A698-C02346A19FDB}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{6434E44C-F735-4561-A698-C02346A19FDB}">
+      <formula1>$P$19:$P$38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
